--- a/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D227A0D-F57F-4473-936B-D0E990BE2AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1729,6 +1729,211 @@
   <si>
     <t>No.13DB新規</t>
   </si>
+  <si>
+    <t xml:space="preserve">①"生年月日を入力してください。例：20231031"
+②"生年月日に数字のみを入力してください。例：20231031"
+のエラーメッセージが出ます
+</t>
+  </si>
+  <si>
+    <t>①"年齢を入力してください。"
+②"年齢に数字のみを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>　</t>
+  </si>
+  <si>
+    <t>①更新の時生年月日が空想の場合</t>
+  </si>
+  <si>
+    <t>①更新の時ステータスを選びます</t>
+  </si>
+  <si>
+    <t>No3.</t>
+  </si>
+  <si>
+    <t>No3.ステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合在籍
+②”１”の場合離職
+が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合在籍
+”１”の場合離職
+が出ます
+</t>
+  </si>
+  <si>
+    <t>①更新の時性別を選びます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合”男”
+”１”の場合”女”
+が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”1”の場合”男”
+”0”の場合”女”
+が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合”男”
+””の場合”女”
+が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合”男”
+”1”の場合”女”
+が出ます
+</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>①更新の時タイプを選びます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合”正社員　”
+”1”の場合”契約社員　”　と　”２”の場合”個人事業　”
+が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
+</t>
+  </si>
+  <si>
+    <t>①"郵便番号を入力してください。"
+②"郵便番号に数字のみを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"住所を入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"電話番号を入力してください。"
+②"電話番号に数字のみを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"権限を入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"メールを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"入社年月日を入力してください。例：20231031"
+②"入社年月日に数字のみを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①"社齢を入力してください。"
+②"社齢に数字のみを入力してください。"
+のエラーメッセージが出ます</t>
+  </si>
+  <si>
+    <t>①画面が正常に表示できる
+②社員情報リスト画面が表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スッ
+</t>
+  </si>
+  <si>
+    <t>社員リスト</t>
+  </si>
+  <si>
+    <t>EmployeeInfoServiceのqueryEmployeeInfo</t>
+  </si>
+  <si>
+    <t>①社員セレクションボックスをクリックする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「テストデータ」シートのNo2.社員リストの社員氏名が表示される
+</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>EmployeeInfoServiceのgetEmployeeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員を選択
+②検索ボタンをクリック
+</t>
+  </si>
+  <si>
+    <t>選択した社員氏名の社員リストが表示される</t>
+  </si>
+  <si>
+    <t>sasd</t>
+  </si>
+  <si>
+    <t>No.DB更新</t>
+  </si>
+  <si>
+    <t>No.18DB更新</t>
+  </si>
+  <si>
+    <t>No.19</t>
+  </si>
+  <si>
+    <t>No.19DB新規</t>
+  </si>
+  <si>
+    <t>No2.社員リスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo4.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
+</t>
+  </si>
+  <si>
+    <t>No.6ステータス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
+”1”の場合”女”
+が出ます
+</t>
+  </si>
+  <si>
+    <t>No.7性別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo.8更新画面に”0”の場合”正社員　”
+”1”の場合”契約社員　”　と　”２”の場合”個人事業　”
+が出ます
+</t>
+  </si>
+  <si>
+    <t>No.8タイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”選びができます。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
+”1”の場合”女”
+選びができます。
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1737,7 +1942,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1993,6 +2198,18 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2024,7 +2241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2539,6 +2756,43 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2555,7 +2809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3282,6 +3536,108 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="40" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="41" applyFont="1" fillId="0" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3427,43 +3783,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="14744700" cy="2562225"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="914400" y="704850"/>
-          <a:ext cx="14744700" cy="2562225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4705350" cy="4924425"/>
     <xdr:pic>
@@ -3482,7 +3804,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="3990975"/>
+          <a:off x="1009650" y="7267575"/>
           <a:ext cx="4705350" cy="4924425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3495,9 +3817,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="14906625" cy="2600325"/>
     <xdr:pic>
@@ -3516,7 +3838,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="9620250"/>
+          <a:off x="1028700" y="12963525"/>
           <a:ext cx="14906625" cy="2600325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3526,70 +3848,12 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name=""/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="7210425"/>
-          <a:ext cx="704850" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="none"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4124325" cy="4886325"/>
     <xdr:pic>
@@ -3608,7 +3872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="13125450"/>
+          <a:off x="1066800" y="16421100"/>
           <a:ext cx="4124325" cy="4886325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3621,9 +3885,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>981075</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="14859000" cy="2828925"/>
     <xdr:pic>
@@ -3642,8 +3906,42 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933450" y="18821400"/>
+          <a:off x="981075" y="22250400"/>
           <a:ext cx="14859000" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13477875" cy="3086100"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="2647950"/>
+          <a:ext cx="13477875" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4543,7 +4841,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5" activeCellId="0"/>
+      <selection activeCell="E31" sqref="E31" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="14" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4675,9 +4973,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BZ18" sqref="BZ18" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A7">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CV16" sqref="CV16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4717,7 +5015,7 @@
     <col min="33" max="33" width="2.09765625" style="40" customWidth="1"/>
     <col min="34" max="34" width="2.09765625" style="40" customWidth="1"/>
     <col min="35" max="35" width="2.09765625" style="40" customWidth="1"/>
-    <col min="36" max="36" width="2.09765625" style="40" customWidth="1"/>
+    <col min="36" max="36" width="3.5703125" style="40" customWidth="1"/>
     <col min="37" max="37" width="2.09765625" style="40" customWidth="1"/>
     <col min="38" max="38" width="2.09765625" style="40" customWidth="1"/>
     <col min="39" max="39" width="2.09765625" style="40" customWidth="1"/>
@@ -5031,9 +5329,7 @@
       </c>
       <c r="BB4" s="103"/>
       <c r="BC4" s="104"/>
-      <c r="BD4" s="105">
-        <v>45246</v>
-      </c>
+      <c r="BD4" s="105"/>
       <c r="BE4" s="97"/>
       <c r="BF4" s="97"/>
       <c r="BG4" s="97"/>
@@ -5371,21 +5667,21 @@
         <v>1</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="259" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="161"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="163"/>
+      <c r="C9" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
       <c r="P9" s="43" t="s">
         <v>61</v>
       </c>
@@ -5402,9 +5698,7 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="44"/>
-      <c r="AB9" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB9" s="43"/>
       <c r="AC9" s="44"/>
       <c r="AD9" s="43"/>
       <c r="AE9" s="66"/>
@@ -5413,20 +5707,20 @@
       <c r="AH9" s="45"/>
       <c r="AI9" s="35"/>
       <c r="AJ9" s="36"/>
-      <c r="AK9" s="239" t="s">
+      <c r="AK9" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL9" s="156"/>
       <c r="AM9" s="157"/>
       <c r="AN9" s="68" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AO9" s="148"/>
       <c r="AP9" s="148"/>
       <c r="AQ9" s="148"/>
       <c r="AR9" s="149"/>
       <c r="AS9" s="68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AT9" s="148"/>
       <c r="AU9" s="148"/>
@@ -5442,7 +5736,7 @@
       <c r="BE9" s="148"/>
       <c r="BF9" s="149"/>
       <c r="BG9" s="68" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="BH9" s="67"/>
       <c r="BI9" s="67"/>
@@ -5458,40 +5752,53 @@
       <c r="BS9" s="67"/>
       <c r="BT9" s="67"/>
       <c r="BU9" s="69"/>
-      <c r="BV9" s="239" t="s">
-        <v>182</v>
+      <c r="BV9" s="155" t="s">
+        <v>283</v>
       </c>
       <c r="BW9" s="156"/>
       <c r="BX9" s="156"/>
       <c r="BY9" s="157"/>
-      <c r="BZ9" s="155"/>
-      <c r="CA9" s="156"/>
-      <c r="CB9" s="157"/>
+      <c r="BZ9" s="260"/>
+      <c r="CA9" s="261"/>
+      <c r="CB9" s="262"/>
       <c r="CC9" s="45"/>
       <c r="CD9" s="35"/>
       <c r="CE9" s="35"/>
       <c r="CF9" s="36"/>
+      <c r="CG9" s="40"/>
+      <c r="CH9" s="40"/>
+      <c r="CI9" s="40"/>
+      <c r="CJ9" s="40"/>
+      <c r="CK9" s="40"/>
+      <c r="CL9" s="40"/>
+      <c r="CM9" s="40"/>
+      <c r="CN9" s="40"/>
+      <c r="CO9" s="40"/>
+      <c r="CP9" s="40"/>
+      <c r="CQ9" s="40"/>
+      <c r="CR9" s="40"/>
+      <c r="CS9" s="40"/>
     </row>
     <row r="10" customHeight="1" ht="108">
-      <c r="A10" s="155">
+      <c r="A10" s="268">
         <v>2</v>
       </c>
       <c r="B10" s="157"/>
-      <c r="C10" s="161" t="s">
-        <v>190</v>
-      </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="163"/>
+      <c r="C10" s="276" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="277"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="278"/>
+      <c r="O10" s="279"/>
       <c r="P10" s="43" t="s">
         <v>61</v>
       </c>
@@ -5508,10 +5815,10 @@
       <c r="Y10" s="44"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="44"/>
-      <c r="AB10" s="43" t="s">
+      <c r="AB10" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="AC10" s="44"/>
+      <c r="AC10" s="157"/>
       <c r="AD10" s="43"/>
       <c r="AE10" s="66"/>
       <c r="AF10" s="66"/>
@@ -5519,20 +5826,20 @@
       <c r="AH10" s="45"/>
       <c r="AI10" s="35"/>
       <c r="AJ10" s="36"/>
-      <c r="AK10" s="180" t="s">
+      <c r="AK10" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="AL10" s="240"/>
-      <c r="AM10" s="241"/>
-      <c r="AN10" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO10" s="148"/>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="148"/>
-      <c r="AR10" s="149"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="263" t="s">
+        <v>285</v>
+      </c>
+      <c r="AO10" s="46"/>
+      <c r="AP10" s="46"/>
+      <c r="AQ10" s="46"/>
+      <c r="AR10" s="264"/>
       <c r="AS10" s="68" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="AT10" s="148"/>
       <c r="AU10" s="148"/>
@@ -5548,7 +5855,7 @@
       <c r="BE10" s="148"/>
       <c r="BF10" s="149"/>
       <c r="BG10" s="68" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="BH10" s="148"/>
       <c r="BI10" s="148"/>
@@ -5564,39 +5871,52 @@
       <c r="BS10" s="148"/>
       <c r="BT10" s="148"/>
       <c r="BU10" s="149"/>
-      <c r="BV10" s="239" t="s">
-        <v>182</v>
+      <c r="BV10" s="155" t="s">
+        <v>283</v>
       </c>
       <c r="BW10" s="156"/>
       <c r="BX10" s="156"/>
       <c r="BY10" s="157"/>
-      <c r="BZ10" s="45"/>
-      <c r="CA10" s="35"/>
-      <c r="CB10" s="36"/>
+      <c r="BZ10" s="260"/>
+      <c r="CA10" s="261"/>
+      <c r="CB10" s="262"/>
       <c r="CC10" s="45"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
       <c r="CF10" s="36"/>
-    </row>
-    <row r="11" customHeight="1" ht="72">
-      <c r="A11" s="201">
+      <c r="CG10" s="40"/>
+      <c r="CH10" s="40"/>
+      <c r="CI10" s="40"/>
+      <c r="CJ10" s="40"/>
+      <c r="CK10" s="40"/>
+      <c r="CL10" s="40"/>
+      <c r="CM10" s="40"/>
+      <c r="CN10" s="40"/>
+      <c r="CO10" s="40"/>
+      <c r="CP10" s="40"/>
+      <c r="CQ10" s="40"/>
+      <c r="CR10" s="40"/>
+      <c r="CS10" s="40"/>
+    </row>
+    <row r="11" customHeight="1" ht="75">
+      <c r="A11" s="155">
         <v>3</v>
       </c>
-      <c r="B11" s="202"/>
-      <c r="C11" s="161" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="287" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
       <c r="O11" s="163"/>
       <c r="P11" s="43" t="s">
         <v>61</v>
@@ -5618,92 +5938,105 @@
         <v>61</v>
       </c>
       <c r="AC11" s="44"/>
-      <c r="AD11" s="43"/>
-      <c r="AE11" s="66"/>
-      <c r="AF11" s="66"/>
-      <c r="AG11" s="44"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="40"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="239" t="s">
+      <c r="AK11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="157"/>
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="44"/>
       <c r="AN11" s="68" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="AO11" s="148"/>
       <c r="AP11" s="148"/>
       <c r="AQ11" s="148"/>
       <c r="AR11" s="149"/>
-      <c r="AS11" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="93"/>
-      <c r="BG11" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="93"/>
-      <c r="BV11" s="239" t="s">
-        <v>182</v>
+      <c r="AS11" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="AT11" s="148"/>
+      <c r="AU11" s="148"/>
+      <c r="AV11" s="148"/>
+      <c r="AW11" s="148"/>
+      <c r="AX11" s="148"/>
+      <c r="AY11" s="148"/>
+      <c r="AZ11" s="148"/>
+      <c r="BA11" s="148"/>
+      <c r="BB11" s="148"/>
+      <c r="BC11" s="148"/>
+      <c r="BD11" s="148"/>
+      <c r="BE11" s="148"/>
+      <c r="BF11" s="149"/>
+      <c r="BG11" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="BH11" s="148"/>
+      <c r="BI11" s="148"/>
+      <c r="BJ11" s="148"/>
+      <c r="BK11" s="148"/>
+      <c r="BL11" s="148"/>
+      <c r="BM11" s="148"/>
+      <c r="BN11" s="148"/>
+      <c r="BO11" s="148"/>
+      <c r="BP11" s="148"/>
+      <c r="BQ11" s="148"/>
+      <c r="BR11" s="148"/>
+      <c r="BS11" s="148"/>
+      <c r="BT11" s="148"/>
+      <c r="BU11" s="149"/>
+      <c r="BV11" s="155" t="s">
+        <v>283</v>
       </c>
       <c r="BW11" s="156"/>
       <c r="BX11" s="156"/>
       <c r="BY11" s="157"/>
-      <c r="BZ11" s="45"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="36"/>
+      <c r="BZ11" s="260"/>
+      <c r="CA11" s="261"/>
+      <c r="CB11" s="262"/>
       <c r="CC11" s="45"/>
       <c r="CD11" s="35"/>
       <c r="CE11" s="35"/>
       <c r="CF11" s="36"/>
-    </row>
-    <row r="12" customHeight="1" ht="78">
+      <c r="CG11" s="40"/>
+      <c r="CH11" s="40"/>
+      <c r="CI11" s="40"/>
+      <c r="CJ11" s="40"/>
+      <c r="CK11" s="40"/>
+      <c r="CL11" s="40"/>
+      <c r="CM11" s="40"/>
+      <c r="CN11" s="40"/>
+      <c r="CO11" s="40"/>
+      <c r="CP11" s="40"/>
+      <c r="CQ11" s="40"/>
+      <c r="CR11" s="40"/>
+      <c r="CS11" s="40"/>
+    </row>
+    <row r="12" customHeight="1" ht="93">
       <c r="A12" s="155">
         <v>4</v>
       </c>
       <c r="B12" s="157"/>
-      <c r="C12" s="161" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="163"/>
+      <c r="C12" s="287" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="287"/>
+      <c r="J12" s="287"/>
+      <c r="K12" s="287"/>
+      <c r="L12" s="287"/>
+      <c r="M12" s="287"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="290"/>
       <c r="P12" s="43" t="s">
         <v>61</v>
       </c>
@@ -5720,9 +6053,7 @@
       <c r="Y12" s="44"/>
       <c r="Z12" s="43"/>
       <c r="AA12" s="44"/>
-      <c r="AB12" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB12" s="43"/>
       <c r="AC12" s="44"/>
       <c r="AD12" s="43"/>
       <c r="AE12" s="66"/>
@@ -5731,117 +6062,128 @@
       <c r="AH12" s="45"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="36"/>
-      <c r="AK12" s="239" t="s">
+      <c r="AK12" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL12" s="156"/>
       <c r="AM12" s="157"/>
       <c r="AN12" s="68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AO12" s="148"/>
       <c r="AP12" s="148"/>
       <c r="AQ12" s="148"/>
       <c r="AR12" s="149"/>
-      <c r="AS12" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92"/>
-      <c r="AV12" s="92"/>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="92"/>
-      <c r="AY12" s="92"/>
-      <c r="AZ12" s="92"/>
-      <c r="BA12" s="92"/>
-      <c r="BB12" s="92"/>
-      <c r="BC12" s="92"/>
-      <c r="BD12" s="92"/>
-      <c r="BE12" s="92"/>
-      <c r="BF12" s="93"/>
-      <c r="BG12" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="BH12" s="92"/>
-      <c r="BI12" s="92"/>
-      <c r="BJ12" s="92"/>
-      <c r="BK12" s="92"/>
-      <c r="BL12" s="92"/>
-      <c r="BM12" s="92"/>
-      <c r="BN12" s="92"/>
-      <c r="BO12" s="92"/>
-      <c r="BP12" s="92"/>
-      <c r="BQ12" s="92"/>
-      <c r="BR12" s="92"/>
-      <c r="BS12" s="92"/>
-      <c r="BT12" s="92"/>
-      <c r="BU12" s="93"/>
-      <c r="BV12" s="239" t="s">
+      <c r="AS12" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT12" s="148"/>
+      <c r="AU12" s="148"/>
+      <c r="AV12" s="148"/>
+      <c r="AW12" s="148"/>
+      <c r="AX12" s="148"/>
+      <c r="AY12" s="148"/>
+      <c r="AZ12" s="148"/>
+      <c r="BA12" s="148"/>
+      <c r="BB12" s="148"/>
+      <c r="BC12" s="148"/>
+      <c r="BD12" s="148"/>
+      <c r="BE12" s="148"/>
+      <c r="BF12" s="149"/>
+      <c r="BG12" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH12" s="67"/>
+      <c r="BI12" s="67"/>
+      <c r="BJ12" s="67"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="67"/>
+      <c r="BM12" s="67"/>
+      <c r="BN12" s="67"/>
+      <c r="BO12" s="67"/>
+      <c r="BP12" s="67"/>
+      <c r="BQ12" s="67"/>
+      <c r="BR12" s="67"/>
+      <c r="BS12" s="67"/>
+      <c r="BT12" s="67"/>
+      <c r="BU12" s="69"/>
+      <c r="BV12" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW12" s="156"/>
       <c r="BX12" s="156"/>
       <c r="BY12" s="157"/>
-      <c r="BZ12" s="45"/>
-      <c r="CA12" s="35"/>
-      <c r="CB12" s="36"/>
+      <c r="BZ12" s="155"/>
+      <c r="CA12" s="156"/>
+      <c r="CB12" s="157"/>
       <c r="CC12" s="45"/>
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
-    </row>
-    <row r="13" customHeight="1" ht="87">
+      <c r="CG12" s="40"/>
+      <c r="CH12" s="40"/>
+      <c r="CI12" s="40"/>
+      <c r="CJ12" s="40"/>
+      <c r="CK12" s="40"/>
+      <c r="CL12" s="40"/>
+      <c r="CM12" s="40"/>
+      <c r="CN12" s="40"/>
+      <c r="CO12" s="40"/>
+      <c r="CP12" s="40"/>
+      <c r="CQ12" s="40"/>
+      <c r="CR12" s="40"/>
+      <c r="CS12" s="40"/>
+    </row>
+    <row r="13" customHeight="1" ht="108">
       <c r="A13" s="155">
         <v>5</v>
       </c>
       <c r="B13" s="157"/>
-      <c r="C13" s="161" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="163"/>
-      <c r="P13" s="88" t="s">
+      <c r="C13" s="287" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="287"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="287"/>
+      <c r="K13" s="287"/>
+      <c r="L13" s="287"/>
+      <c r="M13" s="287"/>
+      <c r="N13" s="287"/>
+      <c r="O13" s="290"/>
+      <c r="P13" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="88" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U13" s="90"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="U13" s="44"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="43"/>
       <c r="AC13" s="44"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="44"/>
       <c r="AH13" s="45"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="239" t="s">
+      <c r="AK13" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="156"/>
-      <c r="AM13" s="157"/>
+      <c r="AL13" s="240"/>
+      <c r="AM13" s="241"/>
       <c r="AN13" s="68" t="s">
         <v>191</v>
       </c>
@@ -5849,40 +6191,40 @@
       <c r="AP13" s="148"/>
       <c r="AQ13" s="148"/>
       <c r="AR13" s="149"/>
-      <c r="AS13" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="92"/>
-      <c r="BA13" s="92"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="92"/>
-      <c r="BF13" s="93"/>
-      <c r="BG13" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH13" s="92"/>
-      <c r="BI13" s="92"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="92"/>
-      <c r="BN13" s="92"/>
-      <c r="BO13" s="92"/>
-      <c r="BP13" s="92"/>
-      <c r="BQ13" s="92"/>
-      <c r="BR13" s="92"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="92"/>
-      <c r="BU13" s="93"/>
-      <c r="BV13" s="239" t="s">
+      <c r="AS13" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="148"/>
+      <c r="AX13" s="148"/>
+      <c r="AY13" s="148"/>
+      <c r="AZ13" s="148"/>
+      <c r="BA13" s="148"/>
+      <c r="BB13" s="148"/>
+      <c r="BC13" s="148"/>
+      <c r="BD13" s="148"/>
+      <c r="BE13" s="148"/>
+      <c r="BF13" s="149"/>
+      <c r="BG13" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH13" s="148"/>
+      <c r="BI13" s="148"/>
+      <c r="BJ13" s="148"/>
+      <c r="BK13" s="148"/>
+      <c r="BL13" s="148"/>
+      <c r="BM13" s="148"/>
+      <c r="BN13" s="148"/>
+      <c r="BO13" s="148"/>
+      <c r="BP13" s="148"/>
+      <c r="BQ13" s="148"/>
+      <c r="BR13" s="148"/>
+      <c r="BS13" s="148"/>
+      <c r="BT13" s="148"/>
+      <c r="BU13" s="149"/>
+      <c r="BV13" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW13" s="156"/>
@@ -5895,55 +6237,66 @@
       <c r="CD13" s="35"/>
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
-    </row>
-    <row r="14" customHeight="1" ht="87">
-      <c r="A14" s="155">
+      <c r="CG13" s="40"/>
+      <c r="CH13" s="40"/>
+      <c r="CI13" s="40"/>
+      <c r="CJ13" s="40"/>
+      <c r="CK13" s="40"/>
+      <c r="CL13" s="40"/>
+      <c r="CM13" s="40"/>
+      <c r="CN13" s="40"/>
+      <c r="CO13" s="40"/>
+      <c r="CP13" s="40"/>
+      <c r="CQ13" s="40"/>
+      <c r="CR13" s="40"/>
+      <c r="CS13" s="40"/>
+    </row>
+    <row r="14" customHeight="1" ht="72">
+      <c r="A14" s="196">
         <v>6</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="161" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="88" t="s">
+      <c r="B14" s="202"/>
+      <c r="C14" s="291" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="291"/>
+      <c r="E14" s="291"/>
+      <c r="F14" s="291"/>
+      <c r="G14" s="291"/>
+      <c r="H14" s="291"/>
+      <c r="I14" s="291"/>
+      <c r="J14" s="291"/>
+      <c r="K14" s="291"/>
+      <c r="L14" s="291"/>
+      <c r="M14" s="291"/>
+      <c r="N14" s="291"/>
+      <c r="O14" s="292"/>
+      <c r="P14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="90"/>
+      <c r="Q14" s="44"/>
       <c r="R14" s="43"/>
       <c r="S14" s="44"/>
-      <c r="T14" s="88" t="s">
+      <c r="T14" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="90"/>
+      <c r="U14" s="44"/>
       <c r="V14" s="43"/>
       <c r="W14" s="44"/>
       <c r="X14" s="43"/>
       <c r="Y14" s="44"/>
       <c r="Z14" s="43"/>
       <c r="AA14" s="44"/>
-      <c r="AB14" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB14" s="43"/>
       <c r="AC14" s="44"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="89"/>
-      <c r="AF14" s="89"/>
-      <c r="AG14" s="90"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="44"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="239" t="s">
+      <c r="AK14" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL14" s="156"/>
@@ -5956,7 +6309,7 @@
       <c r="AQ14" s="148"/>
       <c r="AR14" s="149"/>
       <c r="AS14" s="91" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="AT14" s="92"/>
       <c r="AU14" s="92"/>
@@ -5972,7 +6325,7 @@
       <c r="BE14" s="92"/>
       <c r="BF14" s="93"/>
       <c r="BG14" s="91" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="BH14" s="92"/>
       <c r="BI14" s="92"/>
@@ -5988,7 +6341,7 @@
       <c r="BS14" s="92"/>
       <c r="BT14" s="92"/>
       <c r="BU14" s="93"/>
-      <c r="BV14" s="239" t="s">
+      <c r="BV14" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW14" s="156"/>
@@ -6001,55 +6354,66 @@
       <c r="CD14" s="35"/>
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
-    </row>
-    <row r="15" customHeight="1" ht="87">
-      <c r="A15" s="155">
+      <c r="CG14" s="40"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
+      <c r="CJ14" s="40"/>
+      <c r="CK14" s="40"/>
+      <c r="CL14" s="40"/>
+      <c r="CM14" s="40"/>
+      <c r="CN14" s="40"/>
+      <c r="CO14" s="40"/>
+      <c r="CP14" s="40"/>
+      <c r="CQ14" s="40"/>
+      <c r="CR14" s="40"/>
+      <c r="CS14" s="40"/>
+    </row>
+    <row r="15" customHeight="1" ht="72">
+      <c r="A15" s="196">
         <v>7</v>
       </c>
-      <c r="B15" s="157"/>
+      <c r="B15" s="202"/>
       <c r="C15" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
+        <v>199</v>
+      </c>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="161"/>
+      <c r="I15" s="161"/>
+      <c r="J15" s="161"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
       <c r="O15" s="163"/>
-      <c r="P15" s="88" t="s">
+      <c r="P15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="90"/>
+      <c r="Q15" s="44"/>
       <c r="R15" s="43"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="88" t="s">
+      <c r="T15" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="90"/>
+      <c r="U15" s="44"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
       <c r="X15" s="43"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="44"/>
-      <c r="AB15" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB15" s="43"/>
       <c r="AC15" s="44"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="90"/>
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="66"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="44"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="239" t="s">
+      <c r="AK15" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL15" s="156"/>
@@ -6062,7 +6426,7 @@
       <c r="AQ15" s="148"/>
       <c r="AR15" s="149"/>
       <c r="AS15" s="91" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="AT15" s="92"/>
       <c r="AU15" s="92"/>
@@ -6078,7 +6442,7 @@
       <c r="BE15" s="92"/>
       <c r="BF15" s="93"/>
       <c r="BG15" s="91" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="BH15" s="92"/>
       <c r="BI15" s="92"/>
@@ -6094,7 +6458,7 @@
       <c r="BS15" s="92"/>
       <c r="BT15" s="92"/>
       <c r="BU15" s="93"/>
-      <c r="BV15" s="239" t="s">
+      <c r="BV15" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW15" s="156"/>
@@ -6107,55 +6471,66 @@
       <c r="CD15" s="35"/>
       <c r="CE15" s="35"/>
       <c r="CF15" s="36"/>
-    </row>
-    <row r="16" customHeight="1" ht="87">
-      <c r="A16" s="155">
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40"/>
+      <c r="CI15" s="40"/>
+      <c r="CJ15" s="40"/>
+      <c r="CK15" s="40"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="40"/>
+      <c r="CN15" s="40"/>
+      <c r="CO15" s="40"/>
+      <c r="CP15" s="40"/>
+      <c r="CQ15" s="40"/>
+      <c r="CR15" s="40"/>
+      <c r="CS15" s="40"/>
+    </row>
+    <row r="16" customHeight="1" ht="72">
+      <c r="A16" s="196">
         <v>8</v>
       </c>
-      <c r="B16" s="157"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
+        <v>200</v>
+      </c>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
+      <c r="I16" s="161"/>
+      <c r="J16" s="161"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
       <c r="O16" s="163"/>
-      <c r="P16" s="88" t="s">
+      <c r="P16" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="90"/>
+      <c r="Q16" s="44"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="88" t="s">
+      <c r="T16" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U16" s="90"/>
+      <c r="U16" s="44"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
       <c r="X16" s="43"/>
       <c r="Y16" s="44"/>
       <c r="Z16" s="43"/>
       <c r="AA16" s="44"/>
-      <c r="AB16" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB16" s="43"/>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="89"/>
-      <c r="AG16" s="90"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="66"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="44"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
-      <c r="AK16" s="239" t="s">
+      <c r="AK16" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL16" s="156"/>
@@ -6168,7 +6543,7 @@
       <c r="AQ16" s="148"/>
       <c r="AR16" s="149"/>
       <c r="AS16" s="91" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="AT16" s="92"/>
       <c r="AU16" s="92"/>
@@ -6184,7 +6559,7 @@
       <c r="BE16" s="92"/>
       <c r="BF16" s="93"/>
       <c r="BG16" s="91" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="BH16" s="92"/>
       <c r="BI16" s="92"/>
@@ -6200,7 +6575,7 @@
       <c r="BS16" s="92"/>
       <c r="BT16" s="92"/>
       <c r="BU16" s="93"/>
-      <c r="BV16" s="239" t="s">
+      <c r="BV16" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW16" s="156"/>
@@ -6213,14 +6588,27 @@
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
       <c r="CF16" s="36"/>
-    </row>
-    <row r="17" customHeight="1" ht="87">
-      <c r="A17" s="155">
+      <c r="CG16" s="40"/>
+      <c r="CH16" s="40"/>
+      <c r="CI16" s="40"/>
+      <c r="CJ16" s="40"/>
+      <c r="CK16" s="40"/>
+      <c r="CL16" s="40"/>
+      <c r="CM16" s="40"/>
+      <c r="CN16" s="40"/>
+      <c r="CO16" s="40"/>
+      <c r="CP16" s="40"/>
+      <c r="CQ16" s="40"/>
+      <c r="CR16" s="40"/>
+      <c r="CS16" s="40"/>
+    </row>
+    <row r="17" customHeight="1" ht="72">
+      <c r="A17" s="201">
         <v>9</v>
       </c>
-      <c r="B17" s="157"/>
+      <c r="B17" s="202"/>
       <c r="C17" s="161" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D17" s="162"/>
       <c r="E17" s="162"/>
@@ -6234,33 +6622,31 @@
       <c r="M17" s="162"/>
       <c r="N17" s="162"/>
       <c r="O17" s="163"/>
-      <c r="P17" s="88" t="s">
+      <c r="P17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="90"/>
+      <c r="Q17" s="44"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="88" t="s">
+      <c r="T17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U17" s="90"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="43"/>
       <c r="AA17" s="44"/>
-      <c r="AB17" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="89"/>
-      <c r="AG17" s="90"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="89"/>
-      <c r="AJ17" s="90"/>
+      <c r="AD17" s="43"/>
+      <c r="AE17" s="66"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="36"/>
       <c r="AK17" s="239" t="s">
         <v>37</v>
       </c>
@@ -6274,7 +6660,7 @@
       <c r="AQ17" s="148"/>
       <c r="AR17" s="149"/>
       <c r="AS17" s="91" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AT17" s="92"/>
       <c r="AU17" s="92"/>
@@ -6290,7 +6676,7 @@
       <c r="BE17" s="92"/>
       <c r="BF17" s="93"/>
       <c r="BG17" s="91" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="BH17" s="92"/>
       <c r="BI17" s="92"/>
@@ -6320,13 +6706,13 @@
       <c r="CE17" s="35"/>
       <c r="CF17" s="36"/>
     </row>
-    <row r="18" customHeight="1" ht="87">
+    <row r="18" customHeight="1" ht="78">
       <c r="A18" s="155">
         <v>10</v>
       </c>
       <c r="B18" s="157"/>
       <c r="C18" s="161" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -6340,38 +6726,36 @@
       <c r="M18" s="162"/>
       <c r="N18" s="162"/>
       <c r="O18" s="163"/>
-      <c r="P18" s="88" t="s">
+      <c r="P18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="90"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="88" t="s">
+      <c r="T18" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U18" s="90"/>
+      <c r="U18" s="44"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
       <c r="X18" s="43"/>
       <c r="Y18" s="44"/>
       <c r="Z18" s="43"/>
       <c r="AA18" s="44"/>
-      <c r="AB18" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB18" s="43"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="89"/>
-      <c r="AG18" s="90"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="89"/>
-      <c r="AJ18" s="90"/>
-      <c r="AK18" s="45" t="s">
+      <c r="AD18" s="43"/>
+      <c r="AE18" s="66"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="AL18" s="35"/>
-      <c r="AM18" s="36"/>
+      <c r="AL18" s="156"/>
+      <c r="AM18" s="157"/>
       <c r="AN18" s="68" t="s">
         <v>191</v>
       </c>
@@ -6380,7 +6764,7 @@
       <c r="AQ18" s="148"/>
       <c r="AR18" s="149"/>
       <c r="AS18" s="91" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AT18" s="92"/>
       <c r="AU18" s="92"/>
@@ -6396,7 +6780,7 @@
       <c r="BE18" s="92"/>
       <c r="BF18" s="93"/>
       <c r="BG18" s="91" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="BH18" s="92"/>
       <c r="BI18" s="92"/>
@@ -6426,13 +6810,13 @@
       <c r="CE18" s="35"/>
       <c r="CF18" s="36"/>
     </row>
-    <row r="19" customHeight="1" ht="123">
+    <row r="19" customHeight="1" ht="87">
       <c r="A19" s="155">
         <v>11</v>
       </c>
       <c r="B19" s="157"/>
       <c r="C19" s="161" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D19" s="162"/>
       <c r="E19" s="162"/>
@@ -6462,9 +6846,7 @@
       <c r="Y19" s="90"/>
       <c r="Z19" s="88"/>
       <c r="AA19" s="90"/>
-      <c r="AB19" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB19" s="43"/>
       <c r="AC19" s="44"/>
       <c r="AD19" s="88"/>
       <c r="AE19" s="89"/>
@@ -6486,7 +6868,7 @@
       <c r="AQ19" s="148"/>
       <c r="AR19" s="149"/>
       <c r="AS19" s="91" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AT19" s="92"/>
       <c r="AU19" s="92"/>
@@ -6502,7 +6884,7 @@
       <c r="BE19" s="92"/>
       <c r="BF19" s="93"/>
       <c r="BG19" s="91" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="BH19" s="92"/>
       <c r="BI19" s="92"/>
@@ -6532,45 +6914,43 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" customHeight="1" ht="105">
-      <c r="A20" s="239">
+    <row r="20" customHeight="1" ht="87">
+      <c r="A20" s="155">
         <v>12</v>
       </c>
       <c r="B20" s="157"/>
       <c r="C20" s="161" t="s">
-        <v>244</v>
-      </c>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
+        <v>204</v>
+      </c>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
       <c r="O20" s="163"/>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="43" t="s">
+      <c r="Q20" s="90"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="44"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="U20" s="90"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="43"/>
       <c r="AC20" s="44"/>
       <c r="AD20" s="88"/>
       <c r="AE20" s="89"/>
@@ -6579,52 +6959,52 @@
       <c r="AH20" s="45"/>
       <c r="AI20" s="35"/>
       <c r="AJ20" s="36"/>
-      <c r="AK20" s="155" t="s">
+      <c r="AK20" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL20" s="156"/>
       <c r="AM20" s="157"/>
       <c r="AN20" s="68" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c r="AO20" s="148"/>
       <c r="AP20" s="148"/>
       <c r="AQ20" s="148"/>
       <c r="AR20" s="149"/>
-      <c r="AS20" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
-      <c r="AX20" s="148"/>
-      <c r="AY20" s="148"/>
-      <c r="AZ20" s="148"/>
-      <c r="BA20" s="148"/>
-      <c r="BB20" s="148"/>
-      <c r="BC20" s="148"/>
-      <c r="BD20" s="148"/>
-      <c r="BE20" s="148"/>
-      <c r="BF20" s="149"/>
-      <c r="BG20" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH20" s="148"/>
-      <c r="BI20" s="148"/>
-      <c r="BJ20" s="148"/>
-      <c r="BK20" s="148"/>
-      <c r="BL20" s="148"/>
-      <c r="BM20" s="148"/>
-      <c r="BN20" s="148"/>
-      <c r="BO20" s="148"/>
-      <c r="BP20" s="148"/>
-      <c r="BQ20" s="148"/>
-      <c r="BR20" s="148"/>
-      <c r="BS20" s="148"/>
-      <c r="BT20" s="148"/>
-      <c r="BU20" s="149"/>
-      <c r="BV20" s="155" t="s">
+      <c r="AS20" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="92"/>
+      <c r="BA20" s="92"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="92"/>
+      <c r="BD20" s="92"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="92"/>
+      <c r="BJ20" s="92"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="92"/>
+      <c r="BM20" s="92"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="92"/>
+      <c r="BP20" s="92"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="92"/>
+      <c r="BS20" s="92"/>
+      <c r="BT20" s="92"/>
+      <c r="BU20" s="93"/>
+      <c r="BV20" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW20" s="156"/>
@@ -6638,45 +7018,43 @@
       <c r="CE20" s="35"/>
       <c r="CF20" s="36"/>
     </row>
-    <row r="21" customHeight="1" ht="105">
-      <c r="A21" s="239">
+    <row r="21" customHeight="1" ht="87">
+      <c r="A21" s="155">
         <v>13</v>
       </c>
       <c r="B21" s="157"/>
       <c r="C21" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+        <v>205</v>
+      </c>
+      <c r="D21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
       <c r="O21" s="163"/>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="43" t="s">
+      <c r="Q21" s="90"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U21" s="44"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="U21" s="90"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="43"/>
       <c r="AC21" s="44"/>
       <c r="AD21" s="88"/>
       <c r="AE21" s="89"/>
@@ -6685,52 +7063,52 @@
       <c r="AH21" s="45"/>
       <c r="AI21" s="35"/>
       <c r="AJ21" s="36"/>
-      <c r="AK21" s="155" t="s">
+      <c r="AK21" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL21" s="156"/>
       <c r="AM21" s="157"/>
       <c r="AN21" s="68" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AO21" s="148"/>
       <c r="AP21" s="148"/>
       <c r="AQ21" s="148"/>
       <c r="AR21" s="149"/>
-      <c r="AS21" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="148"/>
-      <c r="AX21" s="148"/>
-      <c r="AY21" s="148"/>
-      <c r="AZ21" s="148"/>
-      <c r="BA21" s="148"/>
-      <c r="BB21" s="148"/>
-      <c r="BC21" s="148"/>
-      <c r="BD21" s="148"/>
-      <c r="BE21" s="148"/>
-      <c r="BF21" s="149"/>
-      <c r="BG21" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH21" s="148"/>
-      <c r="BI21" s="148"/>
-      <c r="BJ21" s="148"/>
-      <c r="BK21" s="148"/>
-      <c r="BL21" s="148"/>
-      <c r="BM21" s="148"/>
-      <c r="BN21" s="148"/>
-      <c r="BO21" s="148"/>
-      <c r="BP21" s="148"/>
-      <c r="BQ21" s="148"/>
-      <c r="BR21" s="148"/>
-      <c r="BS21" s="148"/>
-      <c r="BT21" s="148"/>
-      <c r="BU21" s="149"/>
-      <c r="BV21" s="155" t="s">
+      <c r="AS21" s="91" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT21" s="92"/>
+      <c r="AU21" s="92"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="92"/>
+      <c r="AX21" s="92"/>
+      <c r="AY21" s="92"/>
+      <c r="AZ21" s="92"/>
+      <c r="BA21" s="92"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="92"/>
+      <c r="BD21" s="92"/>
+      <c r="BE21" s="92"/>
+      <c r="BF21" s="93"/>
+      <c r="BG21" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="BH21" s="92"/>
+      <c r="BI21" s="92"/>
+      <c r="BJ21" s="92"/>
+      <c r="BK21" s="92"/>
+      <c r="BL21" s="92"/>
+      <c r="BM21" s="92"/>
+      <c r="BN21" s="92"/>
+      <c r="BO21" s="92"/>
+      <c r="BP21" s="92"/>
+      <c r="BQ21" s="92"/>
+      <c r="BR21" s="92"/>
+      <c r="BS21" s="92"/>
+      <c r="BT21" s="92"/>
+      <c r="BU21" s="93"/>
+      <c r="BV21" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW21" s="156"/>
@@ -6744,8 +7122,636 @@
       <c r="CE21" s="35"/>
       <c r="CF21" s="36"/>
     </row>
+    <row r="22" customHeight="1" ht="87">
+      <c r="A22" s="155">
+        <v>14</v>
+      </c>
+      <c r="B22" s="157"/>
+      <c r="C22" s="161" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="163"/>
+      <c r="P22" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="U22" s="90"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="89"/>
+      <c r="AF22" s="89"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL22" s="156"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="148"/>
+      <c r="AR22" s="149"/>
+      <c r="AS22" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="92"/>
+      <c r="BA22" s="92"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="92"/>
+      <c r="BD22" s="92"/>
+      <c r="BE22" s="92"/>
+      <c r="BF22" s="93"/>
+      <c r="BG22" s="91" t="s">
+        <v>276</v>
+      </c>
+      <c r="BH22" s="92"/>
+      <c r="BI22" s="92"/>
+      <c r="BJ22" s="92"/>
+      <c r="BK22" s="92"/>
+      <c r="BL22" s="92"/>
+      <c r="BM22" s="92"/>
+      <c r="BN22" s="92"/>
+      <c r="BO22" s="92"/>
+      <c r="BP22" s="92"/>
+      <c r="BQ22" s="92"/>
+      <c r="BR22" s="92"/>
+      <c r="BS22" s="92"/>
+      <c r="BT22" s="92"/>
+      <c r="BU22" s="93"/>
+      <c r="BV22" s="239" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW22" s="156"/>
+      <c r="BX22" s="156"/>
+      <c r="BY22" s="157"/>
+      <c r="BZ22" s="45"/>
+      <c r="CA22" s="35"/>
+      <c r="CB22" s="36"/>
+      <c r="CC22" s="45"/>
+      <c r="CD22" s="35"/>
+      <c r="CE22" s="35"/>
+      <c r="CF22" s="36"/>
+    </row>
+    <row r="23" customHeight="1" ht="87">
+      <c r="A23" s="155">
+        <v>15</v>
+      </c>
+      <c r="B23" s="157"/>
+      <c r="C23" s="161" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" s="90"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="90"/>
+      <c r="AK23" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL23" s="156"/>
+      <c r="AM23" s="157"/>
+      <c r="AN23" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO23" s="148"/>
+      <c r="AP23" s="148"/>
+      <c r="AQ23" s="148"/>
+      <c r="AR23" s="149"/>
+      <c r="AS23" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT23" s="92"/>
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="92"/>
+      <c r="AW23" s="92"/>
+      <c r="AX23" s="92"/>
+      <c r="AY23" s="92"/>
+      <c r="AZ23" s="92"/>
+      <c r="BA23" s="92"/>
+      <c r="BB23" s="92"/>
+      <c r="BC23" s="92"/>
+      <c r="BD23" s="92"/>
+      <c r="BE23" s="92"/>
+      <c r="BF23" s="93"/>
+      <c r="BG23" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH23" s="92"/>
+      <c r="BI23" s="92"/>
+      <c r="BJ23" s="92"/>
+      <c r="BK23" s="92"/>
+      <c r="BL23" s="92"/>
+      <c r="BM23" s="92"/>
+      <c r="BN23" s="92"/>
+      <c r="BO23" s="92"/>
+      <c r="BP23" s="92"/>
+      <c r="BQ23" s="92"/>
+      <c r="BR23" s="92"/>
+      <c r="BS23" s="92"/>
+      <c r="BT23" s="92"/>
+      <c r="BU23" s="93"/>
+      <c r="BV23" s="239" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW23" s="156"/>
+      <c r="BX23" s="156"/>
+      <c r="BY23" s="157"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="35"/>
+      <c r="CB23" s="36"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="35"/>
+      <c r="CE23" s="35"/>
+      <c r="CF23" s="36"/>
+    </row>
+    <row r="24" customHeight="1" ht="87">
+      <c r="A24" s="155">
+        <v>16</v>
+      </c>
+      <c r="B24" s="157"/>
+      <c r="C24" s="161" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="162"/>
+      <c r="N24" s="162"/>
+      <c r="O24" s="163"/>
+      <c r="P24" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="90"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="89"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="36"/>
+      <c r="AN24" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO24" s="148"/>
+      <c r="AP24" s="148"/>
+      <c r="AQ24" s="148"/>
+      <c r="AR24" s="149"/>
+      <c r="AS24" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="92"/>
+      <c r="BA24" s="92"/>
+      <c r="BB24" s="92"/>
+      <c r="BC24" s="92"/>
+      <c r="BD24" s="92"/>
+      <c r="BE24" s="92"/>
+      <c r="BF24" s="93"/>
+      <c r="BG24" s="91" t="s">
+        <v>278</v>
+      </c>
+      <c r="BH24" s="92"/>
+      <c r="BI24" s="92"/>
+      <c r="BJ24" s="92"/>
+      <c r="BK24" s="92"/>
+      <c r="BL24" s="92"/>
+      <c r="BM24" s="92"/>
+      <c r="BN24" s="92"/>
+      <c r="BO24" s="92"/>
+      <c r="BP24" s="92"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="92"/>
+      <c r="BS24" s="92"/>
+      <c r="BT24" s="92"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="239" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW24" s="156"/>
+      <c r="BX24" s="156"/>
+      <c r="BY24" s="157"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="35"/>
+      <c r="CB24" s="36"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="35"/>
+      <c r="CE24" s="35"/>
+      <c r="CF24" s="36"/>
+    </row>
+    <row r="25" customHeight="1" ht="72">
+      <c r="A25" s="155">
+        <v>17</v>
+      </c>
+      <c r="B25" s="157"/>
+      <c r="C25" s="161" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="162"/>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="162"/>
+      <c r="N25" s="162"/>
+      <c r="O25" s="163"/>
+      <c r="P25" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="U25" s="90"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="35"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="239" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL25" s="156"/>
+      <c r="AM25" s="157"/>
+      <c r="AN25" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="AO25" s="148"/>
+      <c r="AP25" s="148"/>
+      <c r="AQ25" s="148"/>
+      <c r="AR25" s="149"/>
+      <c r="AS25" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="92"/>
+      <c r="AW25" s="92"/>
+      <c r="AX25" s="92"/>
+      <c r="AY25" s="92"/>
+      <c r="AZ25" s="92"/>
+      <c r="BA25" s="92"/>
+      <c r="BB25" s="92"/>
+      <c r="BC25" s="92"/>
+      <c r="BD25" s="92"/>
+      <c r="BE25" s="92"/>
+      <c r="BF25" s="93"/>
+      <c r="BG25" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="BH25" s="92"/>
+      <c r="BI25" s="92"/>
+      <c r="BJ25" s="92"/>
+      <c r="BK25" s="92"/>
+      <c r="BL25" s="92"/>
+      <c r="BM25" s="92"/>
+      <c r="BN25" s="92"/>
+      <c r="BO25" s="92"/>
+      <c r="BP25" s="92"/>
+      <c r="BQ25" s="92"/>
+      <c r="BR25" s="92"/>
+      <c r="BS25" s="92"/>
+      <c r="BT25" s="92"/>
+      <c r="BU25" s="93"/>
+      <c r="BV25" s="239" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW25" s="156"/>
+      <c r="BX25" s="156"/>
+      <c r="BY25" s="157"/>
+      <c r="BZ25" s="45"/>
+      <c r="CA25" s="35"/>
+      <c r="CB25" s="36"/>
+      <c r="CC25" s="45"/>
+      <c r="CD25" s="35"/>
+      <c r="CE25" s="35"/>
+      <c r="CF25" s="36"/>
+    </row>
+    <row r="26" customHeight="1" ht="66">
+      <c r="A26" s="239">
+        <v>18</v>
+      </c>
+      <c r="B26" s="157"/>
+      <c r="C26" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="44"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="90"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="89"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL26" s="156"/>
+      <c r="AM26" s="157"/>
+      <c r="AN26" s="68" t="s">
+        <v>247</v>
+      </c>
+      <c r="AO26" s="148"/>
+      <c r="AP26" s="148"/>
+      <c r="AQ26" s="148"/>
+      <c r="AR26" s="149"/>
+      <c r="AS26" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT26" s="148"/>
+      <c r="AU26" s="148"/>
+      <c r="AV26" s="148"/>
+      <c r="AW26" s="148"/>
+      <c r="AX26" s="148"/>
+      <c r="AY26" s="148"/>
+      <c r="AZ26" s="148"/>
+      <c r="BA26" s="148"/>
+      <c r="BB26" s="148"/>
+      <c r="BC26" s="148"/>
+      <c r="BD26" s="148"/>
+      <c r="BE26" s="148"/>
+      <c r="BF26" s="149"/>
+      <c r="BG26" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="BH26" s="148"/>
+      <c r="BI26" s="148"/>
+      <c r="BJ26" s="148"/>
+      <c r="BK26" s="148"/>
+      <c r="BL26" s="148"/>
+      <c r="BM26" s="148"/>
+      <c r="BN26" s="148"/>
+      <c r="BO26" s="148"/>
+      <c r="BP26" s="148"/>
+      <c r="BQ26" s="148"/>
+      <c r="BR26" s="148"/>
+      <c r="BS26" s="148"/>
+      <c r="BT26" s="148"/>
+      <c r="BU26" s="149"/>
+      <c r="BV26" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW26" s="156"/>
+      <c r="BX26" s="156"/>
+      <c r="BY26" s="157"/>
+      <c r="BZ26" s="45"/>
+      <c r="CA26" s="35"/>
+      <c r="CB26" s="36"/>
+      <c r="CC26" s="45"/>
+      <c r="CD26" s="35"/>
+      <c r="CE26" s="35"/>
+      <c r="CF26" s="36"/>
+    </row>
+    <row r="27" customHeight="1" ht="69">
+      <c r="A27" s="239">
+        <v>19</v>
+      </c>
+      <c r="B27" s="157"/>
+      <c r="C27" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="163"/>
+      <c r="P27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="44"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC27" s="44"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="89"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="45"/>
+      <c r="AI27" s="35"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="155" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL27" s="156"/>
+      <c r="AM27" s="157"/>
+      <c r="AN27" s="68" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO27" s="148"/>
+      <c r="AP27" s="148"/>
+      <c r="AQ27" s="148"/>
+      <c r="AR27" s="149"/>
+      <c r="AS27" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT27" s="148"/>
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="148"/>
+      <c r="AW27" s="148"/>
+      <c r="AX27" s="148"/>
+      <c r="AY27" s="148"/>
+      <c r="AZ27" s="148"/>
+      <c r="BA27" s="148"/>
+      <c r="BB27" s="148"/>
+      <c r="BC27" s="148"/>
+      <c r="BD27" s="148"/>
+      <c r="BE27" s="148"/>
+      <c r="BF27" s="149"/>
+      <c r="BG27" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="BH27" s="148"/>
+      <c r="BI27" s="148"/>
+      <c r="BJ27" s="148"/>
+      <c r="BK27" s="148"/>
+      <c r="BL27" s="148"/>
+      <c r="BM27" s="148"/>
+      <c r="BN27" s="148"/>
+      <c r="BO27" s="148"/>
+      <c r="BP27" s="148"/>
+      <c r="BQ27" s="148"/>
+      <c r="BR27" s="148"/>
+      <c r="BS27" s="148"/>
+      <c r="BT27" s="148"/>
+      <c r="BU27" s="149"/>
+      <c r="BV27" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW27" s="156"/>
+      <c r="BX27" s="156"/>
+      <c r="BY27" s="157"/>
+      <c r="BZ27" s="45"/>
+      <c r="CA27" s="35"/>
+      <c r="CB27" s="36"/>
+      <c r="CC27" s="45"/>
+      <c r="CD27" s="35"/>
+      <c r="CE27" s="35"/>
+      <c r="CF27" s="36"/>
+    </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="297">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -6787,7 +7793,6 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="C9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
@@ -6803,7 +7808,6 @@
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CB9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:O10"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="AB10:AC10"/>
@@ -6812,6 +7816,7 @@
     <mergeCell ref="AS10:BF10"/>
     <mergeCell ref="BG10:BU10"/>
     <mergeCell ref="BV10:BY10"/>
+    <mergeCell ref="BZ10:CB10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:O11"/>
     <mergeCell ref="P11:Q11"/>
@@ -6821,12 +7826,12 @@
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
     <mergeCell ref="AK11:AM11"/>
     <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AS11:BF11"/>
     <mergeCell ref="BG11:BU11"/>
     <mergeCell ref="BV11:BY11"/>
+    <mergeCell ref="BZ11:CB11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:O12"/>
     <mergeCell ref="P12:Q12"/>
@@ -6842,16 +7847,12 @@
     <mergeCell ref="AS12:BF12"/>
     <mergeCell ref="BG12:BU12"/>
     <mergeCell ref="BV12:BY12"/>
+    <mergeCell ref="BZ12:CB12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
     <mergeCell ref="AK13:AM13"/>
     <mergeCell ref="AN13:AR13"/>
     <mergeCell ref="AS13:BF13"/>
@@ -6860,7 +7861,11 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:O14"/>
     <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
     <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
     <mergeCell ref="AB14:AC14"/>
     <mergeCell ref="AD14:AG14"/>
     <mergeCell ref="AK14:AM14"/>
@@ -6871,7 +7876,11 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="AK15:AM15"/>
@@ -6882,7 +7891,11 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:O16"/>
     <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="AD16:AG16"/>
     <mergeCell ref="AK16:AM16"/>
@@ -6893,10 +7906,13 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:O17"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
     <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="AN17:AR17"/>
     <mergeCell ref="AS17:BF17"/>
@@ -6905,10 +7921,14 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:O18"/>
     <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
     <mergeCell ref="AN18:AR18"/>
     <mergeCell ref="AS18:BF18"/>
     <mergeCell ref="BG18:BU18"/>
@@ -6931,11 +7951,7 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:O20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="AK20:AM20"/>
@@ -6946,11 +7962,7 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:O21"/>
     <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="AK21:AM21"/>
@@ -6958,6 +7970,85 @@
     <mergeCell ref="AS21:BF21"/>
     <mergeCell ref="BG21:BU21"/>
     <mergeCell ref="BV21:BY21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:BF22"/>
+    <mergeCell ref="BG22:BU22"/>
+    <mergeCell ref="BV22:BY22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:BF23"/>
+    <mergeCell ref="BG23:BU23"/>
+    <mergeCell ref="BV23:BY23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:BF24"/>
+    <mergeCell ref="BG24:BU24"/>
+    <mergeCell ref="BV24:BY24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="V25:W25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:BF25"/>
+    <mergeCell ref="BG25:BU25"/>
+    <mergeCell ref="BV25:BY25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="X26:Y26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:BF26"/>
+    <mergeCell ref="BG26:BU26"/>
+    <mergeCell ref="BV26:BY26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="X27:Y27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="AK27:AM27"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:BF27"/>
+    <mergeCell ref="BG27:BU27"/>
+    <mergeCell ref="BV27:BY27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6969,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19" activeCellId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
+      <selection activeCell="A96" sqref="A96" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6978,17 +8069,17 @@
     <col min="1" max="1" width="15.59765625" style="55" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" style="55" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="55" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="55" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="55" customWidth="1"/>
     <col min="5" max="7" width="8.59765625" style="55"/>
-    <col min="8" max="8" width="8.42578125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="55" customWidth="1"/>
     <col min="9" max="9" width="8.59765625" style="55"/>
     <col min="10" max="10" width="11.59765625" style="55" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="55" customWidth="1"/>
     <col min="12" max="12" width="10.796875" style="55" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" style="55" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="55" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="55" customWidth="1"/>
     <col min="15" max="15" width="10.19921875" style="55" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="55" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" style="55" customWidth="1"/>
     <col min="17" max="17" width="10.796875" style="55" customWidth="1"/>
     <col min="18" max="18" width="14" style="55" customWidth="1"/>
     <col min="19" max="19" width="13.09765625" style="55" customWidth="1"/>
@@ -6997,14 +8088,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="27">
-      <c r="A1" s="55" t="s">
-        <v>252</v>
-      </c>
+      <c r="A1" s="55"/>
       <c r="B1" s="55"/>
     </row>
     <row r="2" customHeight="1" ht="27">
       <c r="A2" s="55"/>
-      <c r="B2" s="65"/>
+      <c r="B2" s="55" t="s">
+        <v>84</v>
+      </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
@@ -7024,39 +8115,123 @@
       <c r="S2" s="55"/>
       <c r="T2" s="55"/>
     </row>
-    <row r="3" customHeight="1" ht="24">
-      <c r="A3" s="55"/>
-      <c r="B3" s="230"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="230"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="230"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="231"/>
-      <c r="T3" s="231"/>
-    </row>
-    <row r="4" customHeight="1" ht="27">
-      <c r="B4" s="65"/>
+    <row r="3" customHeight="1" ht="48" customFormat="1" s="293">
+      <c r="A3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="24">
+      <c r="A4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="48"/>
+      <c r="G4" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="62"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
     </row>
     <row r="5" customHeight="1" ht="30"/>
-    <row r="8" customHeight="1" ht="21">
-      <c r="B8" s="55"/>
-    </row>
-    <row r="9" customHeight="1" ht="18">
-      <c r="A9" s="40"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
+    <row r="6" customHeight="1" ht="18">
+      <c r="A6" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="233"/>
+      <c r="C6" s="233"/>
+    </row>
+    <row r="7" customHeight="1" ht="18">
+      <c r="A7" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="233"/>
+      <c r="C7" s="233"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
       <c r="F9" s="55"/>
@@ -7078,79 +8253,70 @@
     <row r="10" customHeight="1" ht="18">
       <c r="A10" s="56"/>
       <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
+      <c r="C10" s="231"/>
       <c r="E10" s="60"/>
     </row>
     <row r="11" customHeight="1" ht="18">
       <c r="A11" s="56"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-    </row>
-    <row r="12" customHeight="1" ht="18">
-      <c r="A12" s="56"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="233"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="55" t="s">
+      <c r="B11" s="234"/>
+      <c r="C11" s="231"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="55" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="55" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="55" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="18" customHeight="1" ht="27">
-      <c r="B18" s="55"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-    </row>
-    <row r="20" customHeight="1" ht="18">
-      <c r="A20" s="56"/>
-      <c r="B20" s="233"/>
-      <c r="C20" s="231"/>
-      <c r="E20" s="60"/>
-    </row>
-    <row r="21" customHeight="1" ht="18">
-      <c r="A21" s="56"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="231"/>
-    </row>
-    <row r="22" customHeight="1" ht="18">
-      <c r="A22" s="56"/>
-      <c r="B22" s="234"/>
-      <c r="C22" s="231"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="55" t="s">
+    <row r="32">
+      <c r="B32" s="55"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="55" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="55" t="s">
+    <row r="48">
+      <c r="B48" s="55"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" s="55"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="55" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="55" t="s">
+      <c r="B70" s="55"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="55"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="55" t="s">
         <v>256</v>
       </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -7164,8 +8330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView showGridLines="false" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報更新.xlsx
+++ b/DOC/単体テスト/EMSM_単体テスト仕様書_社員情報更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D227A0D-F57F-4473-936B-D0E990BE2AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
+    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11111" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1896,42 +1896,144 @@
     <t>No2.社員リスト</t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo4.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
+    <t xml:space="preserve">①「テストデータ」シートのNo4.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
 </t>
   </si>
   <si>
     <t>No.6ステータス</t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
+    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”が出ます
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
-”1”の場合”女”
-が出ます
+    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
+”1”の場合”女”
+が出ます
 </t>
   </si>
   <si>
     <t>No.7性別</t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo.8更新画面に”0”の場合”正社員　”
-”1”の場合”契約社員　”　と　”２”の場合”個人事業　”
-が出ます
+    <t xml:space="preserve">①「テストデータ」シートのNo.8更新画面に”0”の場合”正社員　”
+”1”の場合”契約社員　”　と　”２”の場合”個人事業　”
+が出ます
 </t>
   </si>
   <si>
     <t>No.8タイプ</t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”選びができます。
+    <t xml:space="preserve">①「テストデータ」シートのNo6.更新画面に”0”の場合”在籍”１”の場合”離職”選びができます。
 </t>
   </si>
   <si>
-    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
-”1”の場合”女”
-選びができます。
+    <t xml:space="preserve">①「テストデータ」シートのNo7.更新画面に”0”の場合”男”
+”1”の場合”女”
+選びができます。
+</t>
+  </si>
+  <si>
+    <t>新規追加画面遷移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①新規追加ボダンをクリック
+</t>
+  </si>
+  <si>
+    <t>①画面データをDBへ登録する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①画面データをDB へ新規追加登録する
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員のID 値表示される
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員ID を採番して表示される
+</t>
+  </si>
+  <si>
+    <t>No.1更新画面遷移</t>
+  </si>
+  <si>
+    <t>No.2新規追加画面遷移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">社員のID 値表示される
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新ボダンをクリックしたら社員のID 値表示される
+</t>
+  </si>
+  <si>
+    <t>更新ボダンをクリックしたら</t>
+  </si>
+  <si>
+    <t>社員のID 値表示される</t>
+  </si>
+  <si>
+    <t>新規追加ボタンをクリックしたら</t>
+  </si>
+  <si>
+    <t>社員ID を採番して表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">画面データをDBへ登録する
+</t>
+  </si>
+  <si>
+    <t>画面データをDBへ登録する</t>
+  </si>
+  <si>
+    <t>16.DB更新</t>
+  </si>
+  <si>
+    <t>No16.DB更新</t>
+  </si>
+  <si>
+    <t>No.17DB新規</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①画面データをDB へ新規登録する
+</t>
+  </si>
+  <si>
+    <t>画面データをDB へ新規登録する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+画面データ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+画面更新のデータ</t>
+  </si>
+  <si>
+    <t>画面データ</t>
+  </si>
+  <si>
+    <t>No.16DB更新</t>
+  </si>
+  <si>
+    <t>No.13DB更新</t>
+  </si>
+  <si>
+    <t>No.14DB新規</t>
+  </si>
+  <si>
+    <t>社員情報テブール　　employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①選択した社員ID が表示される
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">①社員ID値更新画面　が表示されます
 </t>
   </si>
 </sst>
@@ -1942,7 +2044,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2210,8 +2312,36 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FFFF0000"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <color rgb="FFFF0000"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Klee One SemiBold"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2239,6 +2369,9 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="68">
@@ -2809,7 +2942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3637,6 +3770,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="42" applyFont="1" fillId="0" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="44" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="44" applyFont="1" fillId="6" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="45" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="43" applyFont="1" fillId="6" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="44" applyFont="1" fillId="6" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="46" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3783,20 +3953,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4705350" cy="4924425"/>
+    <xdr:ext cx="13506450" cy="2781300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="11" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip r:embed="rId8"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3804,8 +3974,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1009650" y="7267575"/>
-          <a:ext cx="4705350" cy="4924425"/>
+          <a:off x="95250" y="514350"/>
+          <a:ext cx="13506450" cy="2781300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3817,20 +3987,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="14906625" cy="2600325"/>
+    <xdr:ext cx="13506450" cy="2819400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvPr id="16" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId13"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3838,42 +4008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="12963525"/>
-          <a:ext cx="14906625" cy="2600325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4124325" cy="4886325"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="16421100"/>
-          <a:ext cx="4124325" cy="4886325"/>
+          <a:off x="104775" y="4457700"/>
+          <a:ext cx="13506450" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3885,20 +4021,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>981075</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="14859000" cy="2828925"/>
+    <xdr:ext cx="13439775" cy="3209925"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId15"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3906,42 +4042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981075" y="22250400"/>
-          <a:ext cx="14859000" cy="2828925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="13477875" cy="3086100"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name=""/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019175" y="2647950"/>
-          <a:ext cx="13477875" cy="3086100"/>
+          <a:off x="133350" y="8096250"/>
+          <a:ext cx="13439775" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4973,9 +5075,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF41"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A7">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CV16" sqref="CV16" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A7" tabSelected="1">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z9" sqref="Z9:AA9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5663,25 +5765,25 @@
       <c r="CF8" s="136"/>
     </row>
     <row r="9" customHeight="1" ht="93">
-      <c r="A9" s="45">
+      <c r="A9" s="155">
         <v>1</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="287" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="287"/>
+      <c r="E9" s="287"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="287"/>
+      <c r="I9" s="287"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="287"/>
+      <c r="M9" s="287"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="290"/>
       <c r="P9" s="43" t="s">
         <v>61</v>
       </c>
@@ -5698,7 +5800,9 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="43"/>
       <c r="AA9" s="44"/>
-      <c r="AB9" s="43"/>
+      <c r="AB9" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="AC9" s="44"/>
       <c r="AD9" s="43"/>
       <c r="AE9" s="66"/>
@@ -5713,14 +5817,14 @@
       <c r="AL9" s="156"/>
       <c r="AM9" s="157"/>
       <c r="AN9" s="68" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AO9" s="148"/>
       <c r="AP9" s="148"/>
       <c r="AQ9" s="148"/>
       <c r="AR9" s="149"/>
       <c r="AS9" s="68" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AT9" s="148"/>
       <c r="AU9" s="148"/>
@@ -5736,7 +5840,7 @@
       <c r="BE9" s="148"/>
       <c r="BF9" s="149"/>
       <c r="BG9" s="68" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="BH9" s="67"/>
       <c r="BI9" s="67"/>
@@ -5753,14 +5857,14 @@
       <c r="BT9" s="67"/>
       <c r="BU9" s="69"/>
       <c r="BV9" s="155" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="BW9" s="156"/>
       <c r="BX9" s="156"/>
       <c r="BY9" s="157"/>
-      <c r="BZ9" s="260"/>
-      <c r="CA9" s="261"/>
-      <c r="CB9" s="262"/>
+      <c r="BZ9" s="155"/>
+      <c r="CA9" s="156"/>
+      <c r="CB9" s="157"/>
       <c r="CC9" s="45"/>
       <c r="CD9" s="35"/>
       <c r="CE9" s="35"/>
@@ -5779,26 +5883,26 @@
       <c r="CR9" s="40"/>
       <c r="CS9" s="40"/>
     </row>
-    <row r="10" customHeight="1" ht="108">
-      <c r="A10" s="268">
+    <row r="10" customHeight="1" ht="93">
+      <c r="A10" s="155">
         <v>2</v>
       </c>
       <c r="B10" s="157"/>
-      <c r="C10" s="276" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="277"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="278"/>
-      <c r="O10" s="279"/>
+      <c r="C10" s="161" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="163"/>
       <c r="P10" s="43" t="s">
         <v>61</v>
       </c>
@@ -5815,10 +5919,10 @@
       <c r="Y10" s="44"/>
       <c r="Z10" s="43"/>
       <c r="AA10" s="44"/>
-      <c r="AB10" s="155" t="s">
+      <c r="AB10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="AC10" s="157"/>
+      <c r="AC10" s="44"/>
       <c r="AD10" s="43"/>
       <c r="AE10" s="66"/>
       <c r="AF10" s="66"/>
@@ -5831,15 +5935,15 @@
       </c>
       <c r="AL10" s="156"/>
       <c r="AM10" s="157"/>
-      <c r="AN10" s="263" t="s">
-        <v>285</v>
-      </c>
-      <c r="AO10" s="46"/>
-      <c r="AP10" s="46"/>
-      <c r="AQ10" s="46"/>
-      <c r="AR10" s="264"/>
+      <c r="AN10" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO10" s="148"/>
+      <c r="AP10" s="148"/>
+      <c r="AQ10" s="148"/>
+      <c r="AR10" s="149"/>
       <c r="AS10" s="68" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="AT10" s="148"/>
       <c r="AU10" s="148"/>
@@ -5855,31 +5959,31 @@
       <c r="BE10" s="148"/>
       <c r="BF10" s="149"/>
       <c r="BG10" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="BH10" s="148"/>
-      <c r="BI10" s="148"/>
-      <c r="BJ10" s="148"/>
-      <c r="BK10" s="148"/>
-      <c r="BL10" s="148"/>
-      <c r="BM10" s="148"/>
-      <c r="BN10" s="148"/>
-      <c r="BO10" s="148"/>
-      <c r="BP10" s="148"/>
-      <c r="BQ10" s="148"/>
-      <c r="BR10" s="148"/>
-      <c r="BS10" s="148"/>
-      <c r="BT10" s="148"/>
-      <c r="BU10" s="149"/>
+        <v>312</v>
+      </c>
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="67"/>
+      <c r="BJ10" s="67"/>
+      <c r="BK10" s="67"/>
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67"/>
+      <c r="BN10" s="67"/>
+      <c r="BO10" s="67"/>
+      <c r="BP10" s="67"/>
+      <c r="BQ10" s="67"/>
+      <c r="BR10" s="67"/>
+      <c r="BS10" s="67"/>
+      <c r="BT10" s="67"/>
+      <c r="BU10" s="69"/>
       <c r="BV10" s="155" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="BW10" s="156"/>
       <c r="BX10" s="156"/>
       <c r="BY10" s="157"/>
-      <c r="BZ10" s="260"/>
-      <c r="CA10" s="261"/>
-      <c r="CB10" s="262"/>
+      <c r="BZ10" s="155"/>
+      <c r="CA10" s="156"/>
+      <c r="CB10" s="157"/>
       <c r="CC10" s="45"/>
       <c r="CD10" s="35"/>
       <c r="CE10" s="35"/>
@@ -5898,26 +6002,26 @@
       <c r="CR10" s="40"/>
       <c r="CS10" s="40"/>
     </row>
-    <row r="11" customHeight="1" ht="75">
+    <row r="11" customHeight="1" ht="108">
       <c r="A11" s="155">
         <v>3</v>
       </c>
       <c r="B11" s="157"/>
       <c r="C11" s="287" t="s">
-        <v>288</v>
-      </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="163"/>
+        <v>190</v>
+      </c>
+      <c r="D11" s="287"/>
+      <c r="E11" s="287"/>
+      <c r="F11" s="287"/>
+      <c r="G11" s="287"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="287"/>
+      <c r="J11" s="287"/>
+      <c r="K11" s="287"/>
+      <c r="L11" s="287"/>
+      <c r="M11" s="287"/>
+      <c r="N11" s="287"/>
+      <c r="O11" s="290"/>
       <c r="P11" s="43" t="s">
         <v>61</v>
       </c>
@@ -5934,31 +6038,29 @@
       <c r="Y11" s="44"/>
       <c r="Z11" s="43"/>
       <c r="AA11" s="44"/>
-      <c r="AB11" s="43" t="s">
-        <v>61</v>
-      </c>
+      <c r="AB11" s="43"/>
       <c r="AC11" s="44"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="40"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="44"/>
       <c r="AH11" s="45"/>
       <c r="AI11" s="35"/>
       <c r="AJ11" s="36"/>
-      <c r="AK11" s="43" t="s">
+      <c r="AK11" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="44"/>
+      <c r="AL11" s="240"/>
+      <c r="AM11" s="241"/>
       <c r="AN11" s="68" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="AO11" s="148"/>
       <c r="AP11" s="148"/>
       <c r="AQ11" s="148"/>
       <c r="AR11" s="149"/>
       <c r="AS11" s="68" t="s">
-        <v>290</v>
+        <v>194</v>
       </c>
       <c r="AT11" s="148"/>
       <c r="AU11" s="148"/>
@@ -5974,7 +6076,7 @@
       <c r="BE11" s="148"/>
       <c r="BF11" s="149"/>
       <c r="BG11" s="68" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="BH11" s="148"/>
       <c r="BI11" s="148"/>
@@ -5991,14 +6093,14 @@
       <c r="BT11" s="148"/>
       <c r="BU11" s="149"/>
       <c r="BV11" s="155" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="BW11" s="156"/>
       <c r="BX11" s="156"/>
       <c r="BY11" s="157"/>
-      <c r="BZ11" s="260"/>
-      <c r="CA11" s="261"/>
-      <c r="CB11" s="262"/>
+      <c r="BZ11" s="45"/>
+      <c r="CA11" s="35"/>
+      <c r="CB11" s="36"/>
       <c r="CC11" s="45"/>
       <c r="CD11" s="35"/>
       <c r="CE11" s="35"/>
@@ -6017,26 +6119,26 @@
       <c r="CR11" s="40"/>
       <c r="CS11" s="40"/>
     </row>
-    <row r="12" customHeight="1" ht="93">
-      <c r="A12" s="155">
+    <row r="12" customHeight="1" ht="72">
+      <c r="A12" s="201">
         <v>4</v>
       </c>
-      <c r="B12" s="157"/>
-      <c r="C12" s="287" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="287"/>
-      <c r="J12" s="287"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="287"/>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="290"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="161" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="163"/>
       <c r="P12" s="43" t="s">
         <v>61</v>
       </c>
@@ -6062,98 +6164,85 @@
       <c r="AH12" s="45"/>
       <c r="AI12" s="35"/>
       <c r="AJ12" s="36"/>
-      <c r="AK12" s="155" t="s">
+      <c r="AK12" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL12" s="156"/>
       <c r="AM12" s="157"/>
       <c r="AN12" s="68" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AO12" s="148"/>
       <c r="AP12" s="148"/>
       <c r="AQ12" s="148"/>
       <c r="AR12" s="149"/>
-      <c r="AS12" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="148"/>
-      <c r="AX12" s="148"/>
-      <c r="AY12" s="148"/>
-      <c r="AZ12" s="148"/>
-      <c r="BA12" s="148"/>
-      <c r="BB12" s="148"/>
-      <c r="BC12" s="148"/>
-      <c r="BD12" s="148"/>
-      <c r="BE12" s="148"/>
-      <c r="BF12" s="149"/>
-      <c r="BG12" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH12" s="67"/>
-      <c r="BI12" s="67"/>
-      <c r="BJ12" s="67"/>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="67"/>
-      <c r="BN12" s="67"/>
-      <c r="BO12" s="67"/>
-      <c r="BP12" s="67"/>
-      <c r="BQ12" s="67"/>
-      <c r="BR12" s="67"/>
-      <c r="BS12" s="67"/>
-      <c r="BT12" s="67"/>
-      <c r="BU12" s="69"/>
-      <c r="BV12" s="155" t="s">
+      <c r="AS12" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="92"/>
+      <c r="BA12" s="92"/>
+      <c r="BB12" s="92"/>
+      <c r="BC12" s="92"/>
+      <c r="BD12" s="92"/>
+      <c r="BE12" s="92"/>
+      <c r="BF12" s="93"/>
+      <c r="BG12" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH12" s="92"/>
+      <c r="BI12" s="92"/>
+      <c r="BJ12" s="92"/>
+      <c r="BK12" s="92"/>
+      <c r="BL12" s="92"/>
+      <c r="BM12" s="92"/>
+      <c r="BN12" s="92"/>
+      <c r="BO12" s="92"/>
+      <c r="BP12" s="92"/>
+      <c r="BQ12" s="92"/>
+      <c r="BR12" s="92"/>
+      <c r="BS12" s="92"/>
+      <c r="BT12" s="92"/>
+      <c r="BU12" s="93"/>
+      <c r="BV12" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW12" s="156"/>
       <c r="BX12" s="156"/>
       <c r="BY12" s="157"/>
-      <c r="BZ12" s="155"/>
-      <c r="CA12" s="156"/>
-      <c r="CB12" s="157"/>
+      <c r="BZ12" s="45"/>
+      <c r="CA12" s="35"/>
+      <c r="CB12" s="36"/>
       <c r="CC12" s="45"/>
       <c r="CD12" s="35"/>
       <c r="CE12" s="35"/>
       <c r="CF12" s="36"/>
-      <c r="CG12" s="40"/>
-      <c r="CH12" s="40"/>
-      <c r="CI12" s="40"/>
-      <c r="CJ12" s="40"/>
-      <c r="CK12" s="40"/>
-      <c r="CL12" s="40"/>
-      <c r="CM12" s="40"/>
-      <c r="CN12" s="40"/>
-      <c r="CO12" s="40"/>
-      <c r="CP12" s="40"/>
-      <c r="CQ12" s="40"/>
-      <c r="CR12" s="40"/>
-      <c r="CS12" s="40"/>
-    </row>
-    <row r="13" customHeight="1" ht="108">
+    </row>
+    <row r="13" customHeight="1" ht="78">
       <c r="A13" s="155">
         <v>5</v>
       </c>
       <c r="B13" s="157"/>
-      <c r="C13" s="287" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="287"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="287"/>
-      <c r="K13" s="287"/>
-      <c r="L13" s="287"/>
-      <c r="M13" s="287"/>
-      <c r="N13" s="287"/>
-      <c r="O13" s="290"/>
+      <c r="C13" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="163"/>
       <c r="P13" s="43" t="s">
         <v>61</v>
       </c>
@@ -6179,11 +6268,11 @@
       <c r="AH13" s="45"/>
       <c r="AI13" s="35"/>
       <c r="AJ13" s="36"/>
-      <c r="AK13" s="180" t="s">
+      <c r="AK13" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="AL13" s="240"/>
-      <c r="AM13" s="241"/>
+      <c r="AL13" s="156"/>
+      <c r="AM13" s="157"/>
       <c r="AN13" s="68" t="s">
         <v>191</v>
       </c>
@@ -6191,40 +6280,40 @@
       <c r="AP13" s="148"/>
       <c r="AQ13" s="148"/>
       <c r="AR13" s="149"/>
-      <c r="AS13" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="148"/>
-      <c r="AX13" s="148"/>
-      <c r="AY13" s="148"/>
-      <c r="AZ13" s="148"/>
-      <c r="BA13" s="148"/>
-      <c r="BB13" s="148"/>
-      <c r="BC13" s="148"/>
-      <c r="BD13" s="148"/>
-      <c r="BE13" s="148"/>
-      <c r="BF13" s="149"/>
-      <c r="BG13" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="BH13" s="148"/>
-      <c r="BI13" s="148"/>
-      <c r="BJ13" s="148"/>
-      <c r="BK13" s="148"/>
-      <c r="BL13" s="148"/>
-      <c r="BM13" s="148"/>
-      <c r="BN13" s="148"/>
-      <c r="BO13" s="148"/>
-      <c r="BP13" s="148"/>
-      <c r="BQ13" s="148"/>
-      <c r="BR13" s="148"/>
-      <c r="BS13" s="148"/>
-      <c r="BT13" s="148"/>
-      <c r="BU13" s="149"/>
-      <c r="BV13" s="155" t="s">
+      <c r="AS13" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="92"/>
+      <c r="BA13" s="92"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="92"/>
+      <c r="BF13" s="93"/>
+      <c r="BG13" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="92"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="92"/>
+      <c r="BN13" s="92"/>
+      <c r="BO13" s="92"/>
+      <c r="BP13" s="92"/>
+      <c r="BQ13" s="92"/>
+      <c r="BR13" s="92"/>
+      <c r="BS13" s="92"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="93"/>
+      <c r="BV13" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW13" s="156"/>
@@ -6237,66 +6326,53 @@
       <c r="CD13" s="35"/>
       <c r="CE13" s="35"/>
       <c r="CF13" s="36"/>
-      <c r="CG13" s="40"/>
-      <c r="CH13" s="40"/>
-      <c r="CI13" s="40"/>
-      <c r="CJ13" s="40"/>
-      <c r="CK13" s="40"/>
-      <c r="CL13" s="40"/>
-      <c r="CM13" s="40"/>
-      <c r="CN13" s="40"/>
-      <c r="CO13" s="40"/>
-      <c r="CP13" s="40"/>
-      <c r="CQ13" s="40"/>
-      <c r="CR13" s="40"/>
-      <c r="CS13" s="40"/>
-    </row>
-    <row r="14" customHeight="1" ht="72">
-      <c r="A14" s="196">
+    </row>
+    <row r="14" customHeight="1" ht="87">
+      <c r="A14" s="155">
         <v>6</v>
       </c>
-      <c r="B14" s="202"/>
-      <c r="C14" s="291" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
-      <c r="F14" s="291"/>
-      <c r="G14" s="291"/>
-      <c r="H14" s="291"/>
-      <c r="I14" s="291"/>
-      <c r="J14" s="291"/>
-      <c r="K14" s="291"/>
-      <c r="L14" s="291"/>
-      <c r="M14" s="291"/>
-      <c r="N14" s="291"/>
-      <c r="O14" s="292"/>
-      <c r="P14" s="43" t="s">
+      <c r="B14" s="157"/>
+      <c r="C14" s="161" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="43" t="s">
+      <c r="Q14" s="90"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="44"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="44"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="90"/>
       <c r="AB14" s="43"/>
       <c r="AC14" s="44"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="44"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="89"/>
+      <c r="AF14" s="89"/>
+      <c r="AG14" s="90"/>
       <c r="AH14" s="45"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="36"/>
-      <c r="AK14" s="155" t="s">
+      <c r="AK14" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL14" s="156"/>
@@ -6309,7 +6385,7 @@
       <c r="AQ14" s="148"/>
       <c r="AR14" s="149"/>
       <c r="AS14" s="91" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="AT14" s="92"/>
       <c r="AU14" s="92"/>
@@ -6325,7 +6401,7 @@
       <c r="BE14" s="92"/>
       <c r="BF14" s="93"/>
       <c r="BG14" s="91" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="BH14" s="92"/>
       <c r="BI14" s="92"/>
@@ -6341,7 +6417,7 @@
       <c r="BS14" s="92"/>
       <c r="BT14" s="92"/>
       <c r="BU14" s="93"/>
-      <c r="BV14" s="155" t="s">
+      <c r="BV14" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW14" s="156"/>
@@ -6354,50 +6430,37 @@
       <c r="CD14" s="35"/>
       <c r="CE14" s="35"/>
       <c r="CF14" s="36"/>
-      <c r="CG14" s="40"/>
-      <c r="CH14" s="40"/>
-      <c r="CI14" s="40"/>
-      <c r="CJ14" s="40"/>
-      <c r="CK14" s="40"/>
-      <c r="CL14" s="40"/>
-      <c r="CM14" s="40"/>
-      <c r="CN14" s="40"/>
-      <c r="CO14" s="40"/>
-      <c r="CP14" s="40"/>
-      <c r="CQ14" s="40"/>
-      <c r="CR14" s="40"/>
-      <c r="CS14" s="40"/>
-    </row>
-    <row r="15" customHeight="1" ht="72">
-      <c r="A15" s="196">
+    </row>
+    <row r="15" customHeight="1" ht="87">
+      <c r="A15" s="155">
         <v>7</v>
       </c>
-      <c r="B15" s="202"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="161" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="161"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
+        <v>204</v>
+      </c>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
       <c r="O15" s="163"/>
-      <c r="P15" s="43" t="s">
+      <c r="P15" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="44"/>
+      <c r="Q15" s="90"/>
       <c r="R15" s="43"/>
       <c r="S15" s="44"/>
-      <c r="T15" s="43" t="s">
+      <c r="T15" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="44"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="43"/>
       <c r="W15" s="44"/>
       <c r="X15" s="43"/>
@@ -6406,14 +6469,14 @@
       <c r="AA15" s="44"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="44"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="44"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="45"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="36"/>
-      <c r="AK15" s="155" t="s">
+      <c r="AK15" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL15" s="156"/>
@@ -6426,7 +6489,7 @@
       <c r="AQ15" s="148"/>
       <c r="AR15" s="149"/>
       <c r="AS15" s="91" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="AT15" s="92"/>
       <c r="AU15" s="92"/>
@@ -6442,7 +6505,7 @@
       <c r="BE15" s="92"/>
       <c r="BF15" s="93"/>
       <c r="BG15" s="91" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="BH15" s="92"/>
       <c r="BI15" s="92"/>
@@ -6458,7 +6521,7 @@
       <c r="BS15" s="92"/>
       <c r="BT15" s="92"/>
       <c r="BU15" s="93"/>
-      <c r="BV15" s="155" t="s">
+      <c r="BV15" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW15" s="156"/>
@@ -6471,50 +6534,37 @@
       <c r="CD15" s="35"/>
       <c r="CE15" s="35"/>
       <c r="CF15" s="36"/>
-      <c r="CG15" s="40"/>
-      <c r="CH15" s="40"/>
-      <c r="CI15" s="40"/>
-      <c r="CJ15" s="40"/>
-      <c r="CK15" s="40"/>
-      <c r="CL15" s="40"/>
-      <c r="CM15" s="40"/>
-      <c r="CN15" s="40"/>
-      <c r="CO15" s="40"/>
-      <c r="CP15" s="40"/>
-      <c r="CQ15" s="40"/>
-      <c r="CR15" s="40"/>
-      <c r="CS15" s="40"/>
-    </row>
-    <row r="16" customHeight="1" ht="72">
-      <c r="A16" s="196">
+    </row>
+    <row r="16" customHeight="1" ht="87">
+      <c r="A16" s="155">
         <v>8</v>
       </c>
-      <c r="B16" s="202"/>
+      <c r="B16" s="157"/>
       <c r="C16" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
+        <v>205</v>
+      </c>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
       <c r="O16" s="163"/>
-      <c r="P16" s="43" t="s">
+      <c r="P16" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="44"/>
+      <c r="Q16" s="90"/>
       <c r="R16" s="43"/>
       <c r="S16" s="44"/>
-      <c r="T16" s="43" t="s">
+      <c r="T16" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U16" s="44"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="43"/>
       <c r="W16" s="44"/>
       <c r="X16" s="43"/>
@@ -6523,14 +6573,14 @@
       <c r="AA16" s="44"/>
       <c r="AB16" s="43"/>
       <c r="AC16" s="44"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="44"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="89"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
       <c r="AH16" s="45"/>
       <c r="AI16" s="35"/>
       <c r="AJ16" s="36"/>
-      <c r="AK16" s="155" t="s">
+      <c r="AK16" s="239" t="s">
         <v>37</v>
       </c>
       <c r="AL16" s="156"/>
@@ -6543,7 +6593,7 @@
       <c r="AQ16" s="148"/>
       <c r="AR16" s="149"/>
       <c r="AS16" s="91" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="AT16" s="92"/>
       <c r="AU16" s="92"/>
@@ -6559,7 +6609,7 @@
       <c r="BE16" s="92"/>
       <c r="BF16" s="93"/>
       <c r="BG16" s="91" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="BH16" s="92"/>
       <c r="BI16" s="92"/>
@@ -6575,7 +6625,7 @@
       <c r="BS16" s="92"/>
       <c r="BT16" s="92"/>
       <c r="BU16" s="93"/>
-      <c r="BV16" s="155" t="s">
+      <c r="BV16" s="239" t="s">
         <v>182</v>
       </c>
       <c r="BW16" s="156"/>
@@ -6588,27 +6638,14 @@
       <c r="CD16" s="35"/>
       <c r="CE16" s="35"/>
       <c r="CF16" s="36"/>
-      <c r="CG16" s="40"/>
-      <c r="CH16" s="40"/>
-      <c r="CI16" s="40"/>
-      <c r="CJ16" s="40"/>
-      <c r="CK16" s="40"/>
-      <c r="CL16" s="40"/>
-      <c r="CM16" s="40"/>
-      <c r="CN16" s="40"/>
-      <c r="CO16" s="40"/>
-      <c r="CP16" s="40"/>
-      <c r="CQ16" s="40"/>
-      <c r="CR16" s="40"/>
-      <c r="CS16" s="40"/>
-    </row>
-    <row r="17" customHeight="1" ht="72">
-      <c r="A17" s="201">
+    </row>
+    <row r="17" customHeight="1" ht="87">
+      <c r="A17" s="155">
         <v>9</v>
       </c>
-      <c r="B17" s="202"/>
+      <c r="B17" s="157"/>
       <c r="C17" s="161" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D17" s="162"/>
       <c r="E17" s="162"/>
@@ -6622,16 +6659,16 @@
       <c r="M17" s="162"/>
       <c r="N17" s="162"/>
       <c r="O17" s="163"/>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="44"/>
+      <c r="Q17" s="90"/>
       <c r="R17" s="43"/>
       <c r="S17" s="44"/>
-      <c r="T17" s="43" t="s">
+      <c r="T17" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U17" s="44"/>
+      <c r="U17" s="90"/>
       <c r="V17" s="43"/>
       <c r="W17" s="44"/>
       <c r="X17" s="43"/>
@@ -6640,10 +6677,10 @@
       <c r="AA17" s="44"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="44"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="44"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="89"/>
+      <c r="AF17" s="89"/>
+      <c r="AG17" s="90"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="35"/>
       <c r="AJ17" s="36"/>
@@ -6660,7 +6697,7 @@
       <c r="AQ17" s="148"/>
       <c r="AR17" s="149"/>
       <c r="AS17" s="91" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AT17" s="92"/>
       <c r="AU17" s="92"/>
@@ -6676,7 +6713,7 @@
       <c r="BE17" s="92"/>
       <c r="BF17" s="93"/>
       <c r="BG17" s="91" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="BH17" s="92"/>
       <c r="BI17" s="92"/>
@@ -6706,13 +6743,13 @@
       <c r="CE17" s="35"/>
       <c r="CF17" s="36"/>
     </row>
-    <row r="18" customHeight="1" ht="78">
+    <row r="18" customHeight="1" ht="87">
       <c r="A18" s="155">
         <v>10</v>
       </c>
       <c r="B18" s="157"/>
       <c r="C18" s="161" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D18" s="162"/>
       <c r="E18" s="162"/>
@@ -6726,16 +6763,16 @@
       <c r="M18" s="162"/>
       <c r="N18" s="162"/>
       <c r="O18" s="163"/>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="44"/>
+      <c r="Q18" s="90"/>
       <c r="R18" s="43"/>
       <c r="S18" s="44"/>
-      <c r="T18" s="43" t="s">
+      <c r="T18" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="U18" s="44"/>
+      <c r="U18" s="90"/>
       <c r="V18" s="43"/>
       <c r="W18" s="44"/>
       <c r="X18" s="43"/>
@@ -6744,13 +6781,13 @@
       <c r="AA18" s="44"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="44"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="44"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="35"/>
-      <c r="AJ18" s="36"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="89"/>
+      <c r="AF18" s="89"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="89"/>
+      <c r="AJ18" s="90"/>
       <c r="AK18" s="239" t="s">
         <v>37</v>
       </c>
@@ -6764,7 +6801,7 @@
       <c r="AQ18" s="148"/>
       <c r="AR18" s="149"/>
       <c r="AS18" s="91" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AT18" s="92"/>
       <c r="AU18" s="92"/>
@@ -6780,7 +6817,7 @@
       <c r="BE18" s="92"/>
       <c r="BF18" s="93"/>
       <c r="BG18" s="91" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="BH18" s="92"/>
       <c r="BI18" s="92"/>
@@ -6810,13 +6847,13 @@
       <c r="CE18" s="35"/>
       <c r="CF18" s="36"/>
     </row>
-    <row r="19" customHeight="1" ht="87">
+    <row r="19" customHeight="1" ht="72">
       <c r="A19" s="155">
         <v>11</v>
       </c>
       <c r="B19" s="157"/>
       <c r="C19" s="161" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D19" s="162"/>
       <c r="E19" s="162"/>
@@ -6868,7 +6905,7 @@
       <c r="AQ19" s="148"/>
       <c r="AR19" s="149"/>
       <c r="AS19" s="91" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AT19" s="92"/>
       <c r="AU19" s="92"/>
@@ -6884,7 +6921,7 @@
       <c r="BE19" s="92"/>
       <c r="BF19" s="93"/>
       <c r="BG19" s="91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BH19" s="92"/>
       <c r="BI19" s="92"/>
@@ -6914,43 +6951,45 @@
       <c r="CE19" s="35"/>
       <c r="CF19" s="36"/>
     </row>
-    <row r="20" customHeight="1" ht="87">
-      <c r="A20" s="155">
+    <row r="20" customHeight="1" ht="66">
+      <c r="A20" s="239">
         <v>12</v>
       </c>
       <c r="B20" s="157"/>
       <c r="C20" s="161" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
+        <v>244</v>
+      </c>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="163"/>
-      <c r="P20" s="88" t="s">
+      <c r="P20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="88" t="s">
+      <c r="Q20" s="44"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="90"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="43"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="AC20" s="44"/>
       <c r="AD20" s="88"/>
       <c r="AE20" s="89"/>
@@ -6959,52 +6998,52 @@
       <c r="AH20" s="45"/>
       <c r="AI20" s="35"/>
       <c r="AJ20" s="36"/>
-      <c r="AK20" s="239" t="s">
+      <c r="AK20" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL20" s="156"/>
       <c r="AM20" s="157"/>
       <c r="AN20" s="68" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
       <c r="AO20" s="148"/>
       <c r="AP20" s="148"/>
       <c r="AQ20" s="148"/>
       <c r="AR20" s="149"/>
-      <c r="AS20" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="92"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="92"/>
-      <c r="AZ20" s="92"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="92"/>
-      <c r="BC20" s="92"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="91" t="s">
-        <v>281</v>
-      </c>
-      <c r="BH20" s="92"/>
-      <c r="BI20" s="92"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="92"/>
-      <c r="BL20" s="92"/>
-      <c r="BM20" s="92"/>
-      <c r="BN20" s="92"/>
-      <c r="BO20" s="92"/>
-      <c r="BP20" s="92"/>
-      <c r="BQ20" s="92"/>
-      <c r="BR20" s="92"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="92"/>
-      <c r="BU20" s="93"/>
-      <c r="BV20" s="239" t="s">
+      <c r="AS20" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="148"/>
+      <c r="AX20" s="148"/>
+      <c r="AY20" s="148"/>
+      <c r="AZ20" s="148"/>
+      <c r="BA20" s="148"/>
+      <c r="BB20" s="148"/>
+      <c r="BC20" s="148"/>
+      <c r="BD20" s="148"/>
+      <c r="BE20" s="148"/>
+      <c r="BF20" s="149"/>
+      <c r="BG20" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="BH20" s="148"/>
+      <c r="BI20" s="148"/>
+      <c r="BJ20" s="148"/>
+      <c r="BK20" s="148"/>
+      <c r="BL20" s="148"/>
+      <c r="BM20" s="148"/>
+      <c r="BN20" s="148"/>
+      <c r="BO20" s="148"/>
+      <c r="BP20" s="148"/>
+      <c r="BQ20" s="148"/>
+      <c r="BR20" s="148"/>
+      <c r="BS20" s="148"/>
+      <c r="BT20" s="148"/>
+      <c r="BU20" s="149"/>
+      <c r="BV20" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW20" s="156"/>
@@ -7018,43 +7057,45 @@
       <c r="CE20" s="35"/>
       <c r="CF20" s="36"/>
     </row>
-    <row r="21" customHeight="1" ht="87">
-      <c r="A21" s="155">
+    <row r="21" customHeight="1" ht="69">
+      <c r="A21" s="239">
         <v>13</v>
       </c>
       <c r="B21" s="157"/>
       <c r="C21" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
+        <v>245</v>
+      </c>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="163"/>
-      <c r="P21" s="88" t="s">
+      <c r="P21" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="88" t="s">
+      <c r="Q21" s="44"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="U21" s="90"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="43"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="AC21" s="44"/>
       <c r="AD21" s="88"/>
       <c r="AE21" s="89"/>
@@ -7063,52 +7104,52 @@
       <c r="AH21" s="45"/>
       <c r="AI21" s="35"/>
       <c r="AJ21" s="36"/>
-      <c r="AK21" s="239" t="s">
+      <c r="AK21" s="155" t="s">
         <v>37</v>
       </c>
       <c r="AL21" s="156"/>
       <c r="AM21" s="157"/>
       <c r="AN21" s="68" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="AO21" s="148"/>
       <c r="AP21" s="148"/>
       <c r="AQ21" s="148"/>
       <c r="AR21" s="149"/>
-      <c r="AS21" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="92"/>
-      <c r="AV21" s="92"/>
-      <c r="AW21" s="92"/>
-      <c r="AX21" s="92"/>
-      <c r="AY21" s="92"/>
-      <c r="AZ21" s="92"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="92"/>
-      <c r="BC21" s="92"/>
-      <c r="BD21" s="92"/>
-      <c r="BE21" s="92"/>
-      <c r="BF21" s="93"/>
-      <c r="BG21" s="91" t="s">
-        <v>275</v>
-      </c>
-      <c r="BH21" s="92"/>
-      <c r="BI21" s="92"/>
-      <c r="BJ21" s="92"/>
-      <c r="BK21" s="92"/>
-      <c r="BL21" s="92"/>
-      <c r="BM21" s="92"/>
-      <c r="BN21" s="92"/>
-      <c r="BO21" s="92"/>
-      <c r="BP21" s="92"/>
-      <c r="BQ21" s="92"/>
-      <c r="BR21" s="92"/>
-      <c r="BS21" s="92"/>
-      <c r="BT21" s="92"/>
-      <c r="BU21" s="93"/>
-      <c r="BV21" s="239" t="s">
+      <c r="AS21" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="148"/>
+      <c r="AV21" s="148"/>
+      <c r="AW21" s="148"/>
+      <c r="AX21" s="148"/>
+      <c r="AY21" s="148"/>
+      <c r="AZ21" s="148"/>
+      <c r="BA21" s="148"/>
+      <c r="BB21" s="148"/>
+      <c r="BC21" s="148"/>
+      <c r="BD21" s="148"/>
+      <c r="BE21" s="148"/>
+      <c r="BF21" s="149"/>
+      <c r="BG21" s="68" t="s">
+        <v>326</v>
+      </c>
+      <c r="BH21" s="148"/>
+      <c r="BI21" s="148"/>
+      <c r="BJ21" s="148"/>
+      <c r="BK21" s="148"/>
+      <c r="BL21" s="148"/>
+      <c r="BM21" s="148"/>
+      <c r="BN21" s="148"/>
+      <c r="BO21" s="148"/>
+      <c r="BP21" s="148"/>
+      <c r="BQ21" s="148"/>
+      <c r="BR21" s="148"/>
+      <c r="BS21" s="148"/>
+      <c r="BT21" s="148"/>
+      <c r="BU21" s="149"/>
+      <c r="BV21" s="155" t="s">
         <v>182</v>
       </c>
       <c r="BW21" s="156"/>
@@ -7122,636 +7163,8 @@
       <c r="CE21" s="35"/>
       <c r="CF21" s="36"/>
     </row>
-    <row r="22" customHeight="1" ht="87">
-      <c r="A22" s="155">
-        <v>14</v>
-      </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="161" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="163"/>
-      <c r="P22" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="U22" s="90"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="89"/>
-      <c r="AG22" s="90"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL22" s="156"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="149"/>
-      <c r="AS22" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="92"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="92"/>
-      <c r="AX22" s="92"/>
-      <c r="AY22" s="92"/>
-      <c r="AZ22" s="92"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="92"/>
-      <c r="BC22" s="92"/>
-      <c r="BD22" s="92"/>
-      <c r="BE22" s="92"/>
-      <c r="BF22" s="93"/>
-      <c r="BG22" s="91" t="s">
-        <v>276</v>
-      </c>
-      <c r="BH22" s="92"/>
-      <c r="BI22" s="92"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="92"/>
-      <c r="BL22" s="92"/>
-      <c r="BM22" s="92"/>
-      <c r="BN22" s="92"/>
-      <c r="BO22" s="92"/>
-      <c r="BP22" s="92"/>
-      <c r="BQ22" s="92"/>
-      <c r="BR22" s="92"/>
-      <c r="BS22" s="92"/>
-      <c r="BT22" s="92"/>
-      <c r="BU22" s="93"/>
-      <c r="BV22" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW22" s="156"/>
-      <c r="BX22" s="156"/>
-      <c r="BY22" s="157"/>
-      <c r="BZ22" s="45"/>
-      <c r="CA22" s="35"/>
-      <c r="CB22" s="36"/>
-      <c r="CC22" s="45"/>
-      <c r="CD22" s="35"/>
-      <c r="CE22" s="35"/>
-      <c r="CF22" s="36"/>
-    </row>
-    <row r="23" customHeight="1" ht="87">
-      <c r="A23" s="155">
-        <v>15</v>
-      </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="161" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="163"/>
-      <c r="P23" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="U23" s="90"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="89"/>
-      <c r="AF23" s="89"/>
-      <c r="AG23" s="90"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="90"/>
-      <c r="AK23" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL23" s="156"/>
-      <c r="AM23" s="157"/>
-      <c r="AN23" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="149"/>
-      <c r="AS23" s="91" t="s">
-        <v>227</v>
-      </c>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="92"/>
-      <c r="AY23" s="92"/>
-      <c r="AZ23" s="92"/>
-      <c r="BA23" s="92"/>
-      <c r="BB23" s="92"/>
-      <c r="BC23" s="92"/>
-      <c r="BD23" s="92"/>
-      <c r="BE23" s="92"/>
-      <c r="BF23" s="93"/>
-      <c r="BG23" s="91" t="s">
-        <v>277</v>
-      </c>
-      <c r="BH23" s="92"/>
-      <c r="BI23" s="92"/>
-      <c r="BJ23" s="92"/>
-      <c r="BK23" s="92"/>
-      <c r="BL23" s="92"/>
-      <c r="BM23" s="92"/>
-      <c r="BN23" s="92"/>
-      <c r="BO23" s="92"/>
-      <c r="BP23" s="92"/>
-      <c r="BQ23" s="92"/>
-      <c r="BR23" s="92"/>
-      <c r="BS23" s="92"/>
-      <c r="BT23" s="92"/>
-      <c r="BU23" s="93"/>
-      <c r="BV23" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW23" s="156"/>
-      <c r="BX23" s="156"/>
-      <c r="BY23" s="157"/>
-      <c r="BZ23" s="45"/>
-      <c r="CA23" s="35"/>
-      <c r="CB23" s="36"/>
-      <c r="CC23" s="45"/>
-      <c r="CD23" s="35"/>
-      <c r="CE23" s="35"/>
-      <c r="CF23" s="36"/>
-    </row>
-    <row r="24" customHeight="1" ht="87">
-      <c r="A24" s="155">
-        <v>16</v>
-      </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="161" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="163"/>
-      <c r="P24" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="U24" s="90"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="149"/>
-      <c r="AS24" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="92"/>
-      <c r="BA24" s="92"/>
-      <c r="BB24" s="92"/>
-      <c r="BC24" s="92"/>
-      <c r="BD24" s="92"/>
-      <c r="BE24" s="92"/>
-      <c r="BF24" s="93"/>
-      <c r="BG24" s="91" t="s">
-        <v>278</v>
-      </c>
-      <c r="BH24" s="92"/>
-      <c r="BI24" s="92"/>
-      <c r="BJ24" s="92"/>
-      <c r="BK24" s="92"/>
-      <c r="BL24" s="92"/>
-      <c r="BM24" s="92"/>
-      <c r="BN24" s="92"/>
-      <c r="BO24" s="92"/>
-      <c r="BP24" s="92"/>
-      <c r="BQ24" s="92"/>
-      <c r="BR24" s="92"/>
-      <c r="BS24" s="92"/>
-      <c r="BT24" s="92"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW24" s="156"/>
-      <c r="BX24" s="156"/>
-      <c r="BY24" s="157"/>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="35"/>
-      <c r="CB24" s="36"/>
-      <c r="CC24" s="45"/>
-      <c r="CD24" s="35"/>
-      <c r="CE24" s="35"/>
-      <c r="CF24" s="36"/>
-    </row>
-    <row r="25" customHeight="1" ht="72">
-      <c r="A25" s="155">
-        <v>17</v>
-      </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="161" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="163"/>
-      <c r="P25" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="U25" s="90"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="90"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="90"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="239" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL25" s="156"/>
-      <c r="AM25" s="157"/>
-      <c r="AN25" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="149"/>
-      <c r="AS25" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="92"/>
-      <c r="AW25" s="92"/>
-      <c r="AX25" s="92"/>
-      <c r="AY25" s="92"/>
-      <c r="AZ25" s="92"/>
-      <c r="BA25" s="92"/>
-      <c r="BB25" s="92"/>
-      <c r="BC25" s="92"/>
-      <c r="BD25" s="92"/>
-      <c r="BE25" s="92"/>
-      <c r="BF25" s="93"/>
-      <c r="BG25" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="BH25" s="92"/>
-      <c r="BI25" s="92"/>
-      <c r="BJ25" s="92"/>
-      <c r="BK25" s="92"/>
-      <c r="BL25" s="92"/>
-      <c r="BM25" s="92"/>
-      <c r="BN25" s="92"/>
-      <c r="BO25" s="92"/>
-      <c r="BP25" s="92"/>
-      <c r="BQ25" s="92"/>
-      <c r="BR25" s="92"/>
-      <c r="BS25" s="92"/>
-      <c r="BT25" s="92"/>
-      <c r="BU25" s="93"/>
-      <c r="BV25" s="239" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW25" s="156"/>
-      <c r="BX25" s="156"/>
-      <c r="BY25" s="157"/>
-      <c r="BZ25" s="45"/>
-      <c r="CA25" s="35"/>
-      <c r="CB25" s="36"/>
-      <c r="CC25" s="45"/>
-      <c r="CD25" s="35"/>
-      <c r="CE25" s="35"/>
-      <c r="CF25" s="36"/>
-    </row>
-    <row r="26" customHeight="1" ht="66">
-      <c r="A26" s="239">
-        <v>18</v>
-      </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="161" t="s">
-        <v>244</v>
-      </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="163"/>
-      <c r="P26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="U26" s="44"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="90"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="89"/>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="90"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="35"/>
-      <c r="AJ26" s="36"/>
-      <c r="AK26" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL26" s="156"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="68" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="148"/>
-      <c r="AQ26" s="148"/>
-      <c r="AR26" s="149"/>
-      <c r="AS26" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT26" s="148"/>
-      <c r="AU26" s="148"/>
-      <c r="AV26" s="148"/>
-      <c r="AW26" s="148"/>
-      <c r="AX26" s="148"/>
-      <c r="AY26" s="148"/>
-      <c r="AZ26" s="148"/>
-      <c r="BA26" s="148"/>
-      <c r="BB26" s="148"/>
-      <c r="BC26" s="148"/>
-      <c r="BD26" s="148"/>
-      <c r="BE26" s="148"/>
-      <c r="BF26" s="149"/>
-      <c r="BG26" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="BH26" s="148"/>
-      <c r="BI26" s="148"/>
-      <c r="BJ26" s="148"/>
-      <c r="BK26" s="148"/>
-      <c r="BL26" s="148"/>
-      <c r="BM26" s="148"/>
-      <c r="BN26" s="148"/>
-      <c r="BO26" s="148"/>
-      <c r="BP26" s="148"/>
-      <c r="BQ26" s="148"/>
-      <c r="BR26" s="148"/>
-      <c r="BS26" s="148"/>
-      <c r="BT26" s="148"/>
-      <c r="BU26" s="149"/>
-      <c r="BV26" s="155" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW26" s="156"/>
-      <c r="BX26" s="156"/>
-      <c r="BY26" s="157"/>
-      <c r="BZ26" s="45"/>
-      <c r="CA26" s="35"/>
-      <c r="CB26" s="36"/>
-      <c r="CC26" s="45"/>
-      <c r="CD26" s="35"/>
-      <c r="CE26" s="35"/>
-      <c r="CF26" s="36"/>
-    </row>
-    <row r="27" customHeight="1" ht="69">
-      <c r="A27" s="239">
-        <v>19</v>
-      </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="161"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="163"/>
-      <c r="P27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="90"/>
-      <c r="T27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="U27" s="44"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="90"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="90"/>
-      <c r="AB27" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="89"/>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="90"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="36"/>
-      <c r="AK27" s="155" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL27" s="156"/>
-      <c r="AM27" s="157"/>
-      <c r="AN27" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="149"/>
-      <c r="AS27" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="AT27" s="148"/>
-      <c r="AU27" s="148"/>
-      <c r="AV27" s="148"/>
-      <c r="AW27" s="148"/>
-      <c r="AX27" s="148"/>
-      <c r="AY27" s="148"/>
-      <c r="AZ27" s="148"/>
-      <c r="BA27" s="148"/>
-      <c r="BB27" s="148"/>
-      <c r="BC27" s="148"/>
-      <c r="BD27" s="148"/>
-      <c r="BE27" s="148"/>
-      <c r="BF27" s="149"/>
-      <c r="BG27" s="68" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH27" s="148"/>
-      <c r="BI27" s="148"/>
-      <c r="BJ27" s="148"/>
-      <c r="BK27" s="148"/>
-      <c r="BL27" s="148"/>
-      <c r="BM27" s="148"/>
-      <c r="BN27" s="148"/>
-      <c r="BO27" s="148"/>
-      <c r="BP27" s="148"/>
-      <c r="BQ27" s="148"/>
-      <c r="BR27" s="148"/>
-      <c r="BS27" s="148"/>
-      <c r="BT27" s="148"/>
-      <c r="BU27" s="149"/>
-      <c r="BV27" s="155" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW27" s="156"/>
-      <c r="BX27" s="156"/>
-      <c r="BY27" s="157"/>
-      <c r="BZ27" s="45"/>
-      <c r="CA27" s="35"/>
-      <c r="CB27" s="36"/>
-      <c r="CC27" s="45"/>
-      <c r="CD27" s="35"/>
-      <c r="CE27" s="35"/>
-      <c r="CF27" s="36"/>
-    </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="218">
     <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="K4:R4"/>
@@ -7793,6 +7206,8 @@
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:O9"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="T9:U9"/>
@@ -7808,9 +7223,15 @@
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BZ9:CB9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:O10"/>
     <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
     <mergeCell ref="AK10:AM10"/>
     <mergeCell ref="AN10:AR10"/>
     <mergeCell ref="AS10:BF10"/>
@@ -7820,18 +7241,13 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:O11"/>
     <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AK11:AM11"/>
     <mergeCell ref="AN11:AR11"/>
     <mergeCell ref="AS11:BF11"/>
     <mergeCell ref="BG11:BU11"/>
     <mergeCell ref="BV11:BY11"/>
-    <mergeCell ref="BZ11:CB11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:O12"/>
     <mergeCell ref="P12:Q12"/>
@@ -7847,12 +7263,16 @@
     <mergeCell ref="AS12:BF12"/>
     <mergeCell ref="BG12:BU12"/>
     <mergeCell ref="BV12:BY12"/>
-    <mergeCell ref="BZ12:CB12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:O13"/>
     <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
     <mergeCell ref="AK13:AM13"/>
     <mergeCell ref="AN13:AR13"/>
     <mergeCell ref="AS13:BF13"/>
@@ -7876,11 +7296,7 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
     <mergeCell ref="AB15:AC15"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="AK15:AM15"/>
@@ -7891,11 +7307,7 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="AB16:AC16"/>
     <mergeCell ref="AD16:AG16"/>
     <mergeCell ref="AK16:AM16"/>
@@ -7906,11 +7318,7 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:O17"/>
     <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="AD17:AG17"/>
     <mergeCell ref="AK17:AM17"/>
@@ -7921,13 +7329,10 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:O18"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
     <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
     <mergeCell ref="AB18:AC18"/>
     <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="AH18:AJ18"/>
     <mergeCell ref="AK18:AM18"/>
     <mergeCell ref="AN18:AR18"/>
     <mergeCell ref="AS18:BF18"/>
@@ -7951,7 +7356,11 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:O20"/>
     <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
     <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="AK20:AM20"/>
@@ -7962,7 +7371,11 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:O21"/>
     <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AG21"/>
     <mergeCell ref="AK21:AM21"/>
@@ -7970,85 +7383,6 @@
     <mergeCell ref="AS21:BF21"/>
     <mergeCell ref="BG21:BU21"/>
     <mergeCell ref="BV21:BY21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AG22"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:BF22"/>
-    <mergeCell ref="BG22:BU22"/>
-    <mergeCell ref="BV22:BY22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:BF23"/>
-    <mergeCell ref="BG23:BU23"/>
-    <mergeCell ref="BV23:BY23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:BF24"/>
-    <mergeCell ref="BG24:BU24"/>
-    <mergeCell ref="BV24:BY24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="V25:W25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AG25"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:BF25"/>
-    <mergeCell ref="BG25:BU25"/>
-    <mergeCell ref="BV25:BY25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:W26"/>
-    <mergeCell ref="X26:Y26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AG26"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:BF26"/>
-    <mergeCell ref="BG26:BU26"/>
-    <mergeCell ref="BV26:BY26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="X27:Y27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AG27"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:BF27"/>
-    <mergeCell ref="BG27:BU27"/>
-    <mergeCell ref="BV27:BY27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8060,8 +7394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA990FAA-16F8-4AD1-B5C3-1673AB87E118}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="A96" sqref="A96" activeCellId="0"/>
+    <sheetView topLeftCell="A1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8088,14 +7422,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="27">
-      <c r="A1" s="55"/>
+      <c r="A1" s="55" t="s">
+        <v>334</v>
+      </c>
       <c r="B1" s="55"/>
     </row>
-    <row r="2" customHeight="1" ht="27">
+    <row r="2">
       <c r="A2" s="55"/>
-      <c r="B2" s="55" t="s">
-        <v>84</v>
-      </c>
+      <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
@@ -8115,116 +7449,58 @@
       <c r="S2" s="55"/>
       <c r="T2" s="55"/>
     </row>
-    <row r="3" customHeight="1" ht="48" customFormat="1" s="293">
-      <c r="A3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q3" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="R3" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="T3" s="61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="24">
-      <c r="A4" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-    </row>
-    <row r="5" customHeight="1" ht="30"/>
+    <row r="3" customHeight="1" ht="21" customFormat="1" s="293">
+      <c r="A3" s="40"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="302"/>
+      <c r="I3" s="302"/>
+      <c r="J3" s="302"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="301"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="302"/>
+      <c r="S3" s="302"/>
+      <c r="T3" s="302"/>
+    </row>
+    <row r="4" customHeight="1" ht="18">
+      <c r="A4" s="55"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="231"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="231"/>
+      <c r="J4" s="231"/>
+      <c r="K4" s="231"/>
+      <c r="L4" s="231"/>
+      <c r="M4" s="231"/>
+      <c r="N4" s="231"/>
+      <c r="O4" s="231"/>
+      <c r="P4" s="230"/>
+      <c r="Q4" s="231"/>
+      <c r="R4" s="231"/>
+      <c r="S4" s="231"/>
+      <c r="T4" s="231"/>
+    </row>
+    <row r="5" customHeight="1" ht="18"/>
     <row r="6" customHeight="1" ht="18">
-      <c r="A6" s="56" t="s">
-        <v>297</v>
-      </c>
+      <c r="A6" s="56"/>
       <c r="B6" s="233"/>
       <c r="C6" s="233"/>
     </row>
     <row r="7" customHeight="1" ht="18">
-      <c r="A7" s="56" t="s">
-        <v>252</v>
-      </c>
+      <c r="A7" s="56"/>
       <c r="B7" s="233"/>
       <c r="C7" s="233"/>
     </row>
@@ -8261,62 +7537,79 @@
       <c r="B11" s="234"/>
       <c r="C11" s="231"/>
     </row>
-    <row r="25">
-      <c r="A25" s="55" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="55" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="55" t="s">
-        <v>304</v>
-      </c>
+    <row r="17">
+      <c r="A17" s="55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="55" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="55"/>
     </row>
     <row r="29">
-      <c r="B29" s="55" t="s">
-        <v>253</v>
-      </c>
+      <c r="B29" s="55"/>
     </row>
     <row r="32">
       <c r="B32" s="55"/>
     </row>
+    <row r="34">
+      <c r="A34" s="55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="55" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="55"/>
+    </row>
     <row r="46">
-      <c r="B46" s="55" t="s">
-        <v>254</v>
-      </c>
+      <c r="B46" s="55"/>
     </row>
     <row r="48">
       <c r="B48" s="55"/>
     </row>
     <row r="54">
-      <c r="A54" s="55" t="s">
-        <v>294</v>
-      </c>
       <c r="B54" s="55"/>
     </row>
+    <row r="66">
+      <c r="B66" s="55"/>
+    </row>
     <row r="70">
-      <c r="A70" s="55" t="s">
-        <v>255</v>
-      </c>
       <c r="B70" s="55"/>
     </row>
     <row r="74">
       <c r="B74" s="55"/>
     </row>
     <row r="89">
-      <c r="B89" s="55" t="s">
-        <v>256</v>
-      </c>
+      <c r="B89" s="55"/>
     </row>
     <row r="96">
-      <c r="A96" s="55" t="s">
-        <v>296</v>
-      </c>
       <c r="B96" s="55"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="55"/>
+    </row>
+    <row r="135" ht="27">
+      <c r="B135" s="51" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" s="55"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="55"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="55"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -8330,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="17.75" outlineLevelRow="0" outlineLevelCol="0"/>
